--- a/capiq_data/in_process_data/IQ340196.xlsx
+++ b/capiq_data/in_process_data/IQ340196.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681F8BC2-8E3D-4F3F-9659-EA24AE4AD6E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D94B3-33F9-482A-A639-BDED6A8A2003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ce42416a-8921-47b1-bbdb-fd8b7d41f024"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3084c72a-eead-4f64-97ca-8a81a8e03895"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>58.456000000000003</v>
+        <v>6.8979999999999997</v>
       </c>
       <c r="D2">
-        <v>305.98599999999999</v>
+        <v>34.366</v>
       </c>
       <c r="E2">
-        <v>235.083</v>
+        <v>28.965</v>
       </c>
       <c r="F2">
-        <v>185.999</v>
+        <v>23.021000000000001</v>
       </c>
       <c r="G2">
-        <v>1145.2539999999999</v>
+        <v>75.679000000000002</v>
       </c>
       <c r="H2">
-        <v>1884.211</v>
+        <v>140.245</v>
       </c>
       <c r="I2">
-        <v>44.329000000000001</v>
+        <v>8.6620000000000008</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>246.59200000000001</v>
+        <v>32.408999999999999</v>
       </c>
       <c r="O2">
-        <v>273.40899999999999</v>
+        <v>32.408999999999999</v>
       </c>
       <c r="P2">
-        <v>64.358000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="Q2">
-        <v>76.197000000000003</v>
+        <v>3.2370000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1610.8019999999999</v>
+        <v>107.836</v>
       </c>
       <c r="U2">
-        <v>616.20100000000002</v>
+        <v>16.856999999999999</v>
       </c>
       <c r="V2">
-        <v>68.311000000000007</v>
+        <v>5.7450000000000001</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-1.9670000000000001</v>
+        <v>-0.51700000000000002</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="AA2">
-        <v>58.456000000000003</v>
+        <v>6.8979999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>53.35</v>
+        <v>-10.194000000000001</v>
       </c>
       <c r="D3">
-        <v>313.25799999999998</v>
+        <v>42.68</v>
       </c>
       <c r="E3">
-        <v>251.935</v>
+        <v>33.076000000000001</v>
       </c>
       <c r="F3">
-        <v>182.50299999999999</v>
+        <v>28.922999999999998</v>
       </c>
       <c r="G3">
-        <v>1202.6579999999999</v>
+        <v>95.302999999999997</v>
       </c>
       <c r="H3">
-        <v>1962.1590000000001</v>
+        <v>200.96100000000001</v>
       </c>
       <c r="I3">
-        <v>52.37</v>
+        <v>9.5370000000000008</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>35.369</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>191.37100000000001</v>
+        <v>109.71299999999999</v>
       </c>
       <c r="O3">
-        <v>298.76900000000001</v>
+        <v>113.691</v>
       </c>
       <c r="P3">
-        <v>80.234999999999999</v>
+        <v>35.369</v>
       </c>
       <c r="Q3">
-        <v>55.503</v>
+        <v>7.7130000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1663.39</v>
+        <v>87.27</v>
       </c>
       <c r="U3">
-        <v>671.70399999999995</v>
+        <v>24.57</v>
       </c>
       <c r="V3">
-        <v>81.408000000000001</v>
+        <v>7.5979999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-21.34</v>
+        <v>18.221</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.66</v>
+        <v>0.81</v>
       </c>
       <c r="AA3">
-        <v>53.35</v>
+        <v>-10.194000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>58.472000000000001</v>
+        <v>8.3460000000000001</v>
       </c>
       <c r="D4">
-        <v>341.89299999999997</v>
+        <v>47.027999999999999</v>
       </c>
       <c r="E4">
-        <v>274.35199999999998</v>
+        <v>32.247999999999998</v>
       </c>
       <c r="F4">
-        <v>201.12799999999999</v>
+        <v>31.748000000000001</v>
       </c>
       <c r="G4">
-        <v>1292.452</v>
+        <v>177.88200000000001</v>
       </c>
       <c r="H4">
-        <v>2068.922</v>
+        <v>288.08999999999997</v>
       </c>
       <c r="I4">
-        <v>55.194000000000003</v>
+        <v>7.9710000000000001</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>208.84</v>
+        <v>33.61</v>
       </c>
       <c r="O4">
-        <v>338.185</v>
+        <v>187.72399999999999</v>
       </c>
       <c r="P4">
-        <v>100.163</v>
+        <v>150</v>
       </c>
       <c r="Q4">
-        <v>63.563000000000002</v>
+        <v>15.566000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>3450</v>
+        <v>953</v>
       </c>
       <c r="T4">
-        <v>1730.7370000000001</v>
+        <v>100.366</v>
       </c>
       <c r="U4">
-        <v>735.26700000000005</v>
+        <v>40.136000000000003</v>
       </c>
       <c r="V4">
-        <v>74.328000000000003</v>
+        <v>9.8870000000000005</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-19.552</v>
+        <v>111.768</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-0.6</v>
+        <v>-63.002000000000002</v>
       </c>
       <c r="AA4">
-        <v>58.472000000000001</v>
+        <v>8.3460000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>50.518000000000001</v>
+        <v>8.5380000000000003</v>
       </c>
       <c r="D5">
-        <v>314.774</v>
+        <v>46.128999999999998</v>
       </c>
       <c r="E5">
-        <v>251.10300000000001</v>
+        <v>33.503</v>
       </c>
       <c r="F5">
-        <v>185.054</v>
+        <v>30.832999999999998</v>
       </c>
       <c r="G5">
-        <v>1142.799</v>
+        <v>226.297</v>
       </c>
       <c r="H5">
-        <v>1935.2919999999999</v>
+        <v>341.47</v>
       </c>
       <c r="I5">
-        <v>46.688000000000002</v>
+        <v>6.3739999999999997</v>
       </c>
       <c r="J5">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-52.456000000000003</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>225.714</v>
+        <v>39.634</v>
       </c>
       <c r="O5">
-        <v>386.274</v>
+        <v>224.845</v>
       </c>
       <c r="P5">
-        <v>134.095</v>
+        <v>180</v>
       </c>
       <c r="Q5">
-        <v>-125.20399999999999</v>
+        <v>20.308</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1549.018</v>
+        <v>116.625</v>
       </c>
       <c r="U5">
-        <v>610.06299999999999</v>
+        <v>60.444000000000003</v>
       </c>
       <c r="V5">
-        <v>89.522999999999996</v>
+        <v>11.228</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-83.942999999999998</v>
+        <v>33.720999999999997</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-1.165</v>
+        <v>-20.96</v>
       </c>
       <c r="AA5">
-        <v>50.518000000000001</v>
+        <v>8.5380000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>62.872</v>
+        <v>8.7789999999999999</v>
       </c>
       <c r="D6">
-        <v>332.738</v>
+        <v>48.923999999999999</v>
       </c>
       <c r="E6">
-        <v>238.76400000000001</v>
+        <v>36.82</v>
       </c>
       <c r="F6">
-        <v>198.715</v>
+        <v>31.837</v>
       </c>
       <c r="G6">
-        <v>1246.7670000000001</v>
+        <v>225.79300000000001</v>
       </c>
       <c r="H6">
-        <v>2041.4780000000001</v>
+        <v>351.42399999999998</v>
       </c>
       <c r="I6">
-        <v>45.762999999999998</v>
+        <v>6.7679999999999998</v>
       </c>
       <c r="J6">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>228.357</v>
+        <v>37.433999999999997</v>
       </c>
       <c r="O6">
-        <v>480.40300000000002</v>
+        <v>223.36</v>
       </c>
       <c r="P6">
-        <v>226.45</v>
+        <v>180</v>
       </c>
       <c r="Q6">
-        <v>113.17</v>
+        <v>3.6030000000000002</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1561.075</v>
+        <v>128.06399999999999</v>
       </c>
       <c r="U6">
-        <v>723.23299999999995</v>
+        <v>64.046999999999997</v>
       </c>
       <c r="V6">
-        <v>110.633</v>
+        <v>4.391</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-10.305999999999999</v>
+        <v>2.895</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-3.6309999999999998</v>
+        <v>9.0120000000000005</v>
       </c>
       <c r="AA6">
-        <v>62.872</v>
+        <v>8.7789999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>64.613</v>
+        <v>10.379</v>
       </c>
       <c r="D7">
-        <v>349.07299999999998</v>
+        <v>52.776000000000003</v>
       </c>
       <c r="E7">
-        <v>267.93</v>
+        <v>43.966000000000001</v>
       </c>
       <c r="F7">
-        <v>210.49600000000001</v>
+        <v>33.771000000000001</v>
       </c>
       <c r="G7">
-        <v>1325.8510000000001</v>
+        <v>210.53100000000001</v>
       </c>
       <c r="H7">
-        <v>2128.8429999999998</v>
+        <v>341.14100000000002</v>
       </c>
       <c r="I7">
-        <v>54.725999999999999</v>
+        <v>12.371</v>
       </c>
       <c r="J7">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>257.47899999999998</v>
+        <v>47.692999999999998</v>
       </c>
       <c r="O7">
-        <v>519.89</v>
+        <v>199.423</v>
       </c>
       <c r="P7">
-        <v>235.982</v>
+        <v>146</v>
       </c>
       <c r="Q7">
-        <v>52.834000000000003</v>
+        <v>-7.819</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1608.953</v>
+        <v>141.71799999999999</v>
       </c>
       <c r="U7">
-        <v>776.06700000000001</v>
+        <v>56.228000000000002</v>
       </c>
       <c r="V7">
-        <v>86.025999999999996</v>
+        <v>11.566000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-35.966999999999999</v>
+        <v>-28.844000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>15.051</v>
       </c>
       <c r="AA7">
-        <v>64.613</v>
+        <v>10.379</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>76.846999999999994</v>
+        <v>9.81</v>
       </c>
       <c r="D8">
-        <v>371.92899999999997</v>
+        <v>56.247</v>
       </c>
       <c r="E8">
-        <v>283.16000000000003</v>
+        <v>46.198999999999998</v>
       </c>
       <c r="F8">
-        <v>226.46899999999999</v>
+        <v>36.808</v>
       </c>
       <c r="G8">
-        <v>1361.1510000000001</v>
+        <v>193.71299999999999</v>
       </c>
       <c r="H8">
-        <v>2137.8690000000001</v>
+        <v>376.19099999999997</v>
       </c>
       <c r="I8">
-        <v>55.006</v>
+        <v>11.605</v>
       </c>
       <c r="J8">
-        <v>250.78299999999999</v>
+        <v>123.25</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>252.852</v>
+        <v>50.904000000000003</v>
       </c>
       <c r="O8">
-        <v>530.24199999999996</v>
+        <v>183.261</v>
       </c>
       <c r="P8">
-        <v>250.83500000000001</v>
+        <v>123.25</v>
       </c>
       <c r="Q8">
-        <v>33.473999999999997</v>
+        <v>16.632000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>3700</v>
+        <v>1250</v>
       </c>
       <c r="T8">
-        <v>1607.627</v>
+        <v>192.93</v>
       </c>
       <c r="U8">
-        <v>809.54100000000005</v>
+        <v>72.86</v>
       </c>
       <c r="V8">
-        <v>96.977000000000004</v>
+        <v>8.4550000000000001</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-46.889000000000003</v>
+        <v>-28.937999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.499</v>
+        <v>35.709000000000003</v>
       </c>
       <c r="AA8">
-        <v>76.846999999999994</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>71.265000000000001</v>
+        <v>9.5709999999999997</v>
       </c>
       <c r="D9">
-        <v>339.73099999999999</v>
+        <v>58.585999999999999</v>
       </c>
       <c r="E9">
-        <v>266.53699999999998</v>
+        <v>46.695999999999998</v>
       </c>
       <c r="F9">
-        <v>208.648</v>
+        <v>37.697000000000003</v>
       </c>
       <c r="G9">
-        <v>1450.2170000000001</v>
+        <v>194.95400000000001</v>
       </c>
       <c r="H9">
-        <v>2244.6590000000001</v>
+        <v>376.61500000000001</v>
       </c>
       <c r="I9">
-        <v>52.914000000000001</v>
+        <v>12.022</v>
       </c>
       <c r="J9">
-        <v>265.78500000000003</v>
+        <v>118.25</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,81 +1470,81 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.158</v>
+        <v>-4.53</v>
       </c>
       <c r="N9">
-        <v>253.03100000000001</v>
+        <v>48.609000000000002</v>
       </c>
       <c r="O9">
-        <v>545.73599999999999</v>
+        <v>177.643</v>
       </c>
       <c r="P9">
-        <v>265.83800000000002</v>
+        <v>118.25</v>
       </c>
       <c r="Q9">
-        <v>81.087999999999994</v>
+        <v>0.71</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1698.923</v>
+        <v>198.97200000000001</v>
       </c>
       <c r="U9">
-        <v>890.62900000000002</v>
+        <v>73.569999999999993</v>
       </c>
       <c r="V9">
-        <v>78.254000000000005</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="W9">
-        <v>-22.843</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>7.69</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>3.9670000000000001</v>
       </c>
       <c r="AA9">
-        <v>71.265000000000001</v>
+        <v>9.5709999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>77.941999999999993</v>
+        <v>10.384</v>
       </c>
       <c r="D10">
-        <v>376.53699999999998</v>
+        <v>65.293000000000006</v>
       </c>
       <c r="E10">
-        <v>281.43900000000002</v>
+        <v>49.243000000000002</v>
       </c>
       <c r="F10">
-        <v>232.71199999999999</v>
+        <v>41.838999999999999</v>
       </c>
       <c r="G10">
-        <v>1529.8510000000001</v>
+        <v>196.77600000000001</v>
       </c>
       <c r="H10">
-        <v>2330.375</v>
+        <v>387.13799999999998</v>
       </c>
       <c r="I10">
-        <v>52.119</v>
+        <v>12.454000000000001</v>
       </c>
       <c r="J10">
-        <v>300.798</v>
+        <v>113.25</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>251.06800000000001</v>
+        <v>45.764000000000003</v>
       </c>
       <c r="O10">
-        <v>578.86300000000006</v>
+        <v>168.32</v>
       </c>
       <c r="P10">
-        <v>300.85199999999998</v>
+        <v>113.25</v>
       </c>
       <c r="Q10">
-        <v>67.650999999999996</v>
+        <v>8.8979999999999997</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1751.5119999999999</v>
+        <v>218.81800000000001</v>
       </c>
       <c r="U10">
-        <v>958.28</v>
+        <v>82.468000000000004</v>
       </c>
       <c r="V10">
-        <v>93.647000000000006</v>
+        <v>12.118</v>
       </c>
       <c r="W10">
-        <v>-25.844999999999999</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-14.71</v>
+        <v>-10.414999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-0.89100000000000001</v>
+        <v>11.233000000000001</v>
       </c>
       <c r="AA10">
-        <v>77.941999999999993</v>
+        <v>10.384</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>84.912999999999997</v>
+        <v>12.25</v>
       </c>
       <c r="D11">
-        <v>383.58100000000002</v>
+        <v>68.995999999999995</v>
       </c>
       <c r="E11">
-        <v>293.48899999999998</v>
+        <v>52.636000000000003</v>
       </c>
       <c r="F11">
-        <v>239.44900000000001</v>
+        <v>43.186999999999998</v>
       </c>
       <c r="G11">
-        <v>1579.875</v>
+        <v>220.06700000000001</v>
       </c>
       <c r="H11">
-        <v>2374.9560000000001</v>
+        <v>420.26299999999998</v>
       </c>
       <c r="I11">
-        <v>49.384999999999998</v>
+        <v>16.027000000000001</v>
       </c>
       <c r="J11">
-        <v>0.76600000000000001</v>
+        <v>113.25</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>580.42100000000005</v>
+        <v>52.914000000000001</v>
       </c>
       <c r="O11">
-        <v>606.798</v>
+        <v>175.595</v>
       </c>
       <c r="P11">
-        <v>340.81799999999998</v>
+        <v>113.25</v>
       </c>
       <c r="Q11">
-        <v>54.417999999999999</v>
+        <v>11.247</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1768.1579999999999</v>
+        <v>244.66800000000001</v>
       </c>
       <c r="U11">
-        <v>1012.698</v>
+        <v>93.715000000000003</v>
       </c>
       <c r="V11">
-        <v>107</v>
+        <v>16.969000000000001</v>
       </c>
       <c r="W11">
-        <v>-24.251000000000001</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-30.434999999999999</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.66700000000000004</v>
+        <v>-4.0910000000000002</v>
       </c>
       <c r="AA11">
-        <v>84.912999999999997</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>73.013000000000005</v>
+        <v>13.523999999999999</v>
       </c>
       <c r="D12">
-        <v>414.60700000000003</v>
+        <v>80.694999999999993</v>
       </c>
       <c r="E12">
-        <v>318.34899999999999</v>
+        <v>56.694000000000003</v>
       </c>
       <c r="F12">
-        <v>259.84800000000001</v>
+        <v>50.363999999999997</v>
       </c>
       <c r="G12">
-        <v>1448.8489999999999</v>
+        <v>241.905</v>
       </c>
       <c r="H12">
-        <v>2210.721</v>
+        <v>459.59500000000003</v>
       </c>
       <c r="I12">
-        <v>60.688000000000002</v>
+        <v>19.367999999999999</v>
       </c>
       <c r="J12">
-        <v>0.76900000000000002</v>
+        <v>113.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>574.04899999999998</v>
+        <v>50.582999999999998</v>
       </c>
       <c r="O12">
-        <v>600.20500000000004</v>
+        <v>173.16200000000001</v>
       </c>
       <c r="P12">
-        <v>300.786</v>
+        <v>113.25</v>
       </c>
       <c r="Q12">
-        <v>-136.65</v>
+        <v>20.776</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>3900</v>
+        <v>1464</v>
       </c>
       <c r="T12">
-        <v>1610.5160000000001</v>
+        <v>286.43299999999999</v>
       </c>
       <c r="U12">
-        <v>876.048</v>
+        <v>114.491</v>
       </c>
       <c r="V12">
-        <v>123.922</v>
+        <v>22.146999999999998</v>
       </c>
       <c r="W12">
-        <v>-24.265000000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-116.47199999999999</v>
+        <v>-2.2709999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.66700000000000004</v>
+        <v>4.5030000000000001</v>
       </c>
       <c r="AA12">
-        <v>73.013000000000005</v>
+        <v>13.523999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>80.930000000000007</v>
+        <v>12.249000000000001</v>
       </c>
       <c r="D13">
-        <v>357.66199999999998</v>
+        <v>72.878</v>
       </c>
       <c r="E13">
-        <v>282.42500000000001</v>
+        <v>55.963000000000001</v>
       </c>
       <c r="F13">
-        <v>227.982</v>
+        <v>47.158000000000001</v>
       </c>
       <c r="G13">
-        <v>1557.934</v>
+        <v>259.70100000000002</v>
       </c>
       <c r="H13">
-        <v>2334.6350000000002</v>
+        <v>486.63400000000001</v>
       </c>
       <c r="I13">
-        <v>57.125</v>
+        <v>17.411000000000001</v>
       </c>
       <c r="J13">
-        <v>0.79</v>
+        <v>113.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1802,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>611.08199999999999</v>
+        <v>52.481999999999999</v>
       </c>
       <c r="O13">
-        <v>642.1</v>
+        <v>175.399</v>
       </c>
       <c r="P13">
-        <v>360.80799999999999</v>
+        <v>113.25</v>
       </c>
       <c r="Q13">
-        <v>100.526</v>
+        <v>-9.8140000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>1692.5350000000001</v>
+        <v>311.23500000000001</v>
       </c>
       <c r="U13">
-        <v>976.57399999999996</v>
+        <v>104.67700000000001</v>
       </c>
       <c r="V13">
-        <v>90.424999999999997</v>
+        <v>12.568</v>
       </c>
       <c r="W13">
-        <v>-35.478000000000002</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>9.9600000000000009</v>
+        <v>8.5990000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.67500000000000004</v>
+        <v>-20.38</v>
       </c>
       <c r="AA13">
-        <v>80.930000000000007</v>
+        <v>12.249000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>86.635999999999996</v>
+        <v>14.151</v>
       </c>
       <c r="D14">
-        <v>384.34100000000001</v>
+        <v>82.292000000000002</v>
       </c>
       <c r="E14">
-        <v>301.62700000000001</v>
+        <v>58.164999999999999</v>
       </c>
       <c r="F14">
-        <v>248.75899999999999</v>
+        <v>52.423999999999999</v>
       </c>
       <c r="G14">
-        <v>1564.1320000000001</v>
+        <v>248.10400000000001</v>
       </c>
       <c r="H14">
-        <v>2345.5880000000002</v>
+        <v>506.47899999999998</v>
       </c>
       <c r="I14">
-        <v>56.234999999999999</v>
+        <v>14.478999999999999</v>
       </c>
       <c r="J14">
-        <v>435.79399999999998</v>
+        <v>113.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>242.81100000000001</v>
+        <v>50.706000000000003</v>
       </c>
       <c r="O14">
-        <v>706.63599999999997</v>
+        <v>173.80799999999999</v>
       </c>
       <c r="P14">
-        <v>435.81200000000001</v>
+        <v>113.25</v>
       </c>
       <c r="Q14">
-        <v>-3.899</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1638.952</v>
+        <v>332.67099999999999</v>
       </c>
       <c r="U14">
-        <v>972.67499999999995</v>
+        <v>107.462</v>
       </c>
       <c r="V14">
-        <v>84.165000000000006</v>
+        <v>13.429</v>
       </c>
       <c r="W14">
-        <v>-35.646999999999998</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-22.608000000000001</v>
+        <v>-15.984999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-0.85</v>
+        <v>16.280999999999999</v>
       </c>
       <c r="AA14">
-        <v>86.635999999999996</v>
+        <v>14.151</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>89.968999999999994</v>
+        <v>15.029</v>
       </c>
       <c r="D15">
-        <v>397.75799999999998</v>
+        <v>91.277000000000001</v>
       </c>
       <c r="E15">
-        <v>337.572</v>
+        <v>65.933999999999997</v>
       </c>
       <c r="F15">
-        <v>251.78800000000001</v>
+        <v>57.55</v>
       </c>
       <c r="G15">
-        <v>1563.902</v>
+        <v>267.75700000000001</v>
       </c>
       <c r="H15">
-        <v>2364.5659999999998</v>
+        <v>541.44200000000001</v>
       </c>
       <c r="I15">
-        <v>55.482999999999997</v>
+        <v>18.704999999999998</v>
       </c>
       <c r="J15">
-        <v>395.78500000000003</v>
+        <v>113.25</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>246.892</v>
+        <v>66.424000000000007</v>
       </c>
       <c r="O15">
-        <v>673.66099999999994</v>
+        <v>189.11600000000001</v>
       </c>
       <c r="P15">
-        <v>395.803</v>
+        <v>113.25</v>
       </c>
       <c r="Q15">
-        <v>-34.112000000000002</v>
+        <v>7.1059999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1690.905</v>
+        <v>352.32600000000002</v>
       </c>
       <c r="U15">
-        <v>938.56299999999999</v>
+        <v>114.568</v>
       </c>
       <c r="V15">
-        <v>101.095</v>
+        <v>27.210999999999999</v>
       </c>
       <c r="W15">
-        <v>-35.262</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-144.43299999999999</v>
+        <v>3.2930000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-3.75</v>
+        <v>-3.7</v>
       </c>
       <c r="AA15">
-        <v>89.968999999999994</v>
+        <v>15.029</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>87.738</v>
+        <v>15.855</v>
       </c>
       <c r="D16">
-        <v>415.21100000000001</v>
+        <v>92.891000000000005</v>
       </c>
       <c r="E16">
-        <v>359.59300000000002</v>
+        <v>67.242000000000004</v>
       </c>
       <c r="F16">
-        <v>261.25799999999998</v>
+        <v>59.603999999999999</v>
       </c>
       <c r="G16">
-        <v>1556.2090000000001</v>
+        <v>282.82100000000003</v>
       </c>
       <c r="H16">
-        <v>2360.962</v>
+        <v>549.15099999999995</v>
       </c>
       <c r="I16">
-        <v>85.405000000000001</v>
+        <v>18.574000000000002</v>
       </c>
       <c r="J16">
-        <v>300.77</v>
+        <v>113.25</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>269.55799999999999</v>
+        <v>60.591000000000001</v>
       </c>
       <c r="O16">
-        <v>602.71400000000006</v>
+        <v>187.65199999999999</v>
       </c>
       <c r="P16">
-        <v>300.78800000000001</v>
+        <v>113.25</v>
       </c>
       <c r="Q16">
-        <v>-32.832999999999998</v>
+        <v>14.339</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>4100</v>
+        <v>1520</v>
       </c>
       <c r="T16">
-        <v>1758.248</v>
+        <v>361.49900000000002</v>
       </c>
       <c r="U16">
-        <v>905.73</v>
+        <v>128.90700000000001</v>
       </c>
       <c r="V16">
-        <v>115.583</v>
+        <v>23.332999999999998</v>
       </c>
       <c r="W16">
-        <v>-35.131</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-140.23500000000001</v>
+        <v>5.407</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-5.5750000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="AA16">
-        <v>87.738</v>
+        <v>15.855</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>83.26</v>
+        <v>13.926</v>
       </c>
       <c r="D17">
-        <v>380.399</v>
+        <v>87.733000000000004</v>
       </c>
       <c r="E17">
-        <v>328.59100000000001</v>
+        <v>68.751999999999995</v>
       </c>
       <c r="F17">
-        <v>237.31299999999999</v>
+        <v>56.411000000000001</v>
       </c>
       <c r="G17">
-        <v>1534.75</v>
+        <v>289.56799999999998</v>
       </c>
       <c r="H17">
-        <v>2309.453</v>
+        <v>565.10400000000004</v>
       </c>
       <c r="I17">
-        <v>76.248000000000005</v>
+        <v>17.945</v>
       </c>
       <c r="J17">
-        <v>375.70100000000002</v>
+        <v>113.25</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2134,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>254.29599999999999</v>
+        <v>64.296999999999997</v>
       </c>
       <c r="O17">
-        <v>656.24199999999996</v>
+        <v>186.81800000000001</v>
       </c>
       <c r="P17">
-        <v>375.70100000000002</v>
+        <v>113.25</v>
       </c>
       <c r="Q17">
-        <v>-24.036000000000001</v>
+        <v>12.712999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1653.211</v>
+        <v>378.286</v>
       </c>
       <c r="U17">
-        <v>881.69399999999996</v>
+        <v>141.62</v>
       </c>
       <c r="V17">
-        <v>86.536000000000001</v>
+        <v>16.617999999999999</v>
       </c>
       <c r="W17">
-        <v>-39.198999999999998</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-3.9649999999999999</v>
+        <v>-7.1980000000000004</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>9.1029999999999998</v>
       </c>
       <c r="AA17">
-        <v>83.26</v>
+        <v>13.926</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>91.18</v>
+        <v>17.404</v>
       </c>
       <c r="D18">
-        <v>422.952</v>
+        <v>103.893</v>
       </c>
       <c r="E18">
-        <v>340.42700000000002</v>
+        <v>76.861000000000004</v>
       </c>
       <c r="F18">
-        <v>263.22199999999998</v>
+        <v>68.378</v>
       </c>
       <c r="G18">
-        <v>1558.491</v>
+        <v>323.24599999999998</v>
       </c>
       <c r="H18">
-        <v>2326.5619999999999</v>
+        <v>624.49099999999999</v>
       </c>
       <c r="I18">
-        <v>80.004000000000005</v>
+        <v>17.82</v>
       </c>
       <c r="J18">
-        <v>449.66300000000001</v>
+        <v>113.25</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>259.61</v>
+        <v>73.302000000000007</v>
       </c>
       <c r="O18">
-        <v>738.11400000000003</v>
+        <v>197.09200000000001</v>
       </c>
       <c r="P18">
-        <v>449.66300000000001</v>
+        <v>113.25</v>
       </c>
       <c r="Q18">
-        <v>-0.999</v>
+        <v>1.448</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1588.4480000000001</v>
+        <v>427.399</v>
       </c>
       <c r="U18">
-        <v>880.69500000000005</v>
+        <v>143.06800000000001</v>
       </c>
       <c r="V18">
-        <v>106.002</v>
+        <v>22.312000000000001</v>
       </c>
       <c r="W18">
-        <v>-39.277999999999999</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>10.776</v>
+        <v>6.41</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-10</v>
+        <v>-19.431999999999999</v>
       </c>
       <c r="AA18">
-        <v>91.180999999999997</v>
+        <v>17.404</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>90.983999999999995</v>
+        <v>17.876999999999999</v>
       </c>
       <c r="D19">
-        <v>422.49700000000001</v>
+        <v>108.45399999999999</v>
       </c>
       <c r="E19">
-        <v>345.48500000000001</v>
+        <v>89.108999999999995</v>
       </c>
       <c r="F19">
-        <v>251.43100000000001</v>
+        <v>70.295000000000002</v>
       </c>
       <c r="G19">
-        <v>1552.77</v>
+        <v>363.49700000000001</v>
       </c>
       <c r="H19">
-        <v>2278.029</v>
+        <v>674.30200000000002</v>
       </c>
       <c r="I19">
-        <v>70.900000000000006</v>
+        <v>23.260999999999999</v>
       </c>
       <c r="J19">
-        <v>460.58100000000002</v>
+        <v>113.25</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>256.404</v>
+        <v>86.186000000000007</v>
       </c>
       <c r="O19">
-        <v>741.75400000000002</v>
+        <v>210.29900000000001</v>
       </c>
       <c r="P19">
-        <v>460.58100000000002</v>
+        <v>113.25</v>
       </c>
       <c r="Q19">
-        <v>-14.37</v>
+        <v>-6.3680000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1536.2750000000001</v>
+        <v>464.00299999999999</v>
       </c>
       <c r="U19">
-        <v>866.32500000000005</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="V19">
-        <v>90.941000000000003</v>
+        <v>10.866</v>
       </c>
       <c r="W19">
-        <v>-39.384999999999998</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-26.039000000000001</v>
+        <v>21.722999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-16.992999999999999</v>
       </c>
       <c r="AA19">
-        <v>90.983000000000004</v>
+        <v>17.876999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>87.462000000000003</v>
+        <v>15.577999999999999</v>
       </c>
       <c r="D20">
-        <v>453.06400000000002</v>
+        <v>125.425</v>
       </c>
       <c r="E20">
-        <v>362.56799999999998</v>
+        <v>103.95099999999999</v>
       </c>
       <c r="F20">
-        <v>259.43</v>
+        <v>79.775999999999996</v>
       </c>
       <c r="G20">
-        <v>1407.8440000000001</v>
+        <v>360.21</v>
       </c>
       <c r="H20">
-        <v>2181.7739999999999</v>
+        <v>774.14599999999996</v>
       </c>
       <c r="I20">
-        <v>81.111999999999995</v>
+        <v>34.415999999999997</v>
       </c>
       <c r="J20">
-        <v>300.59399999999999</v>
+        <v>58.933999999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>266.46300000000002</v>
+        <v>218.55099999999999</v>
       </c>
       <c r="O20">
-        <v>594.46699999999998</v>
+        <v>300.08100000000002</v>
       </c>
       <c r="P20">
-        <v>300.59399999999999</v>
+        <v>174.369</v>
       </c>
       <c r="Q20">
-        <v>-149.07599999999999</v>
+        <v>5.4850000000000003</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>4340</v>
+        <v>1927</v>
       </c>
       <c r="T20">
-        <v>1587.307</v>
+        <v>474.065</v>
       </c>
       <c r="U20">
-        <v>717.24900000000002</v>
+        <v>142.185</v>
       </c>
       <c r="V20">
-        <v>99.700999999999993</v>
+        <v>21.283000000000001</v>
       </c>
       <c r="W20">
-        <v>-39.4</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-236.56299999999999</v>
+        <v>4.2610000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0.68700000000000006</v>
+        <v>37.478999999999999</v>
       </c>
       <c r="AA20">
-        <v>87.462000000000003</v>
+        <v>15.577999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>82.917000000000002</v>
+        <v>16.442</v>
       </c>
       <c r="D21">
-        <v>411.64699999999999</v>
+        <v>127.127</v>
       </c>
       <c r="E21">
-        <v>327.16800000000001</v>
+        <v>102.991</v>
       </c>
       <c r="F21">
-        <v>238.619</v>
+        <v>80.119</v>
       </c>
       <c r="G21">
-        <v>1532.8</v>
+        <v>370.61900000000003</v>
       </c>
       <c r="H21">
-        <v>2254.6790000000001</v>
+        <v>816.49800000000005</v>
       </c>
       <c r="I21">
-        <v>77.481999999999999</v>
+        <v>32.186999999999998</v>
       </c>
       <c r="J21">
-        <v>500.58699999999999</v>
+        <v>58.613999999999997</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-8.0000000000000002E-3</v>
+        <v>-0.46899999999999997</v>
       </c>
       <c r="N21">
-        <v>257.30700000000002</v>
+        <v>230.30199999999999</v>
       </c>
       <c r="O21">
-        <v>793.86599999999999</v>
+        <v>311.09500000000003</v>
       </c>
       <c r="P21">
-        <v>500.58699999999999</v>
+        <v>184.501</v>
       </c>
       <c r="Q21">
-        <v>104.804</v>
+        <v>-12.456</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1460.8130000000001</v>
+        <v>505.40300000000002</v>
       </c>
       <c r="U21">
-        <v>822.053</v>
+        <v>129.72900000000001</v>
       </c>
       <c r="V21">
-        <v>124.608</v>
+        <v>15.94</v>
       </c>
       <c r="W21">
-        <v>-42.079000000000001</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>104.408</v>
+        <v>19.911999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-4.5819999999999999</v>
+        <v>-5.1109999999999998</v>
       </c>
       <c r="AA21">
-        <v>82.917000000000002</v>
+        <v>16.442</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>95.575999999999993</v>
+        <v>22.314</v>
       </c>
       <c r="D22">
-        <v>454.54</v>
+        <v>146.416</v>
       </c>
       <c r="E22">
-        <v>331.74700000000001</v>
+        <v>115.367</v>
       </c>
       <c r="F22">
-        <v>266.50900000000001</v>
+        <v>91.725999999999999</v>
       </c>
       <c r="G22">
-        <v>1350.8409999999999</v>
+        <v>401.20600000000002</v>
       </c>
       <c r="H22">
-        <v>2239.011</v>
+        <v>860.04899999999998</v>
       </c>
       <c r="I22">
-        <v>67.58</v>
+        <v>37.500999999999998</v>
       </c>
       <c r="J22">
-        <v>400.59100000000001</v>
+        <v>58.189</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>265.57</v>
+        <v>256.35199999999998</v>
       </c>
       <c r="O22">
-        <v>714.74</v>
+        <v>334.952</v>
       </c>
       <c r="P22">
-        <v>401.57600000000002</v>
+        <v>203.58099999999999</v>
       </c>
       <c r="Q22">
-        <v>-163.249</v>
+        <v>10.553000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>1524.271</v>
+        <v>525.09699999999998</v>
       </c>
       <c r="U22">
-        <v>658.80399999999997</v>
+        <v>140.28200000000001</v>
       </c>
       <c r="V22">
-        <v>155.614</v>
+        <v>14.946999999999999</v>
       </c>
       <c r="W22">
-        <v>-41.975000000000001</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-183.73400000000001</v>
+        <v>27.603000000000002</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-3</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="AA22">
-        <v>95.575999999999993</v>
+        <v>22.314</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>90.79</v>
+        <v>26.361999999999998</v>
       </c>
       <c r="D23">
-        <v>453.87900000000002</v>
+        <v>162.28</v>
       </c>
       <c r="E23">
-        <v>358.17099999999999</v>
+        <v>127.179</v>
       </c>
       <c r="F23">
-        <v>259.88</v>
+        <v>100.866</v>
       </c>
       <c r="G23">
-        <v>1400.0940000000001</v>
+        <v>432.62299999999999</v>
       </c>
       <c r="H23">
-        <v>2444.61</v>
+        <v>899.12</v>
       </c>
       <c r="I23">
-        <v>77.641999999999996</v>
+        <v>35.29</v>
       </c>
       <c r="J23">
-        <v>435.60899999999998</v>
+        <v>94.283000000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>286.50799999999998</v>
+        <v>110.527</v>
       </c>
       <c r="O23">
-        <v>771.19899999999996</v>
+        <v>224.785</v>
       </c>
       <c r="P23">
-        <v>435.60899999999998</v>
+        <v>96.474000000000004</v>
       </c>
       <c r="Q23">
-        <v>59.691000000000003</v>
+        <v>25.879000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1673.4110000000001</v>
+        <v>674.33500000000004</v>
       </c>
       <c r="U23">
-        <v>718.495</v>
+        <v>166.161</v>
       </c>
       <c r="V23">
-        <v>124.751</v>
+        <v>32.831000000000003</v>
       </c>
       <c r="W23">
-        <v>-41.972000000000001</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-16.140999999999998</v>
+        <v>14.192</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-0.63300000000000001</v>
+        <v>-0.441</v>
       </c>
       <c r="AA23">
-        <v>90.790999999999997</v>
+        <v>26.361999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>83.126000000000005</v>
+        <v>23.093</v>
       </c>
       <c r="D24">
-        <v>518.64700000000005</v>
+        <v>171.172</v>
       </c>
       <c r="E24">
-        <v>382.08600000000001</v>
+        <v>138.14699999999999</v>
       </c>
       <c r="F24">
-        <v>301.48899999999998</v>
+        <v>104.184</v>
       </c>
       <c r="G24">
-        <v>1419.7190000000001</v>
+        <v>510.71899999999999</v>
       </c>
       <c r="H24">
-        <v>3256.7049999999999</v>
+        <v>1012.921</v>
       </c>
       <c r="I24">
-        <v>92.570999999999998</v>
+        <v>45.045000000000002</v>
       </c>
       <c r="J24">
-        <v>873.33199999999999</v>
+        <v>116.212</v>
       </c>
       <c r="K24">
-        <v>299.43799999999999</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,164 +2718,164 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>637.98900000000003</v>
+        <v>129.435</v>
       </c>
       <c r="O24">
-        <v>1561.874</v>
+        <v>274.77300000000002</v>
       </c>
       <c r="P24">
-        <v>1172.77</v>
+        <v>121.081</v>
       </c>
       <c r="Q24">
-        <v>12.939</v>
+        <v>53.383000000000003</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>5250</v>
+        <v>2500</v>
       </c>
       <c r="T24">
-        <v>1694.8309999999999</v>
+        <v>738.14800000000002</v>
       </c>
       <c r="U24">
-        <v>731.43399999999997</v>
+        <v>219.54400000000001</v>
       </c>
       <c r="V24">
-        <v>142.96</v>
+        <v>35.31</v>
       </c>
       <c r="W24">
-        <v>-42.103999999999999</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>708.05100000000004</v>
+        <v>36.06</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-0.28199999999999997</v>
+        <v>2.1429999999999998</v>
       </c>
       <c r="AA24">
-        <v>83.126000000000005</v>
+        <v>23.093</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>76.106999999999999</v>
+        <v>24.998999999999999</v>
       </c>
       <c r="D25">
-        <v>465.45</v>
+        <v>163.60499999999999</v>
       </c>
       <c r="E25">
-        <v>347.137</v>
+        <v>129.91200000000001</v>
       </c>
       <c r="F25">
-        <v>269.18400000000003</v>
+        <v>101.29600000000001</v>
       </c>
       <c r="G25">
-        <v>1474.8520000000001</v>
+        <v>517.94899999999996</v>
       </c>
       <c r="H25">
-        <v>3322.2640000000001</v>
+        <v>1031.008</v>
       </c>
       <c r="I25">
-        <v>80.489000000000004</v>
+        <v>35.18</v>
       </c>
       <c r="J25">
-        <v>873.51099999999997</v>
+        <v>115.48399999999999</v>
       </c>
       <c r="K25">
-        <v>299.625</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>620.55499999999995</v>
+        <v>121.261</v>
       </c>
       <c r="O25">
-        <v>1549.6959999999999</v>
+        <v>259.548</v>
       </c>
       <c r="P25">
-        <v>1173.136</v>
+        <v>120.309</v>
       </c>
       <c r="Q25">
-        <v>50.223999999999997</v>
+        <v>-18.388999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>1772.568</v>
+        <v>771.46</v>
       </c>
       <c r="U25">
-        <v>781.65800000000002</v>
+        <v>201.155</v>
       </c>
       <c r="V25">
-        <v>86.242999999999995</v>
+        <v>26.132000000000001</v>
       </c>
       <c r="W25">
-        <v>-46.378</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-40.048000000000002</v>
+        <v>5.9</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-2.758</v>
+        <v>-20.631</v>
       </c>
       <c r="AA25">
-        <v>76.106999999999999</v>
+        <v>24.998999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>76.742000000000004</v>
+        <v>28.995000000000001</v>
       </c>
       <c r="D26">
-        <v>530.39700000000005</v>
+        <v>178.428</v>
       </c>
       <c r="E26">
-        <v>383.99200000000002</v>
+        <v>143.596</v>
       </c>
       <c r="F26">
-        <v>309.07100000000003</v>
+        <v>111.758</v>
       </c>
       <c r="G26">
-        <v>1520.2739999999999</v>
+        <v>590.90800000000002</v>
       </c>
       <c r="H26">
-        <v>3322.57</v>
+        <v>1132.3420000000001</v>
       </c>
       <c r="I26">
-        <v>94.1</v>
+        <v>45.484999999999999</v>
       </c>
       <c r="J26">
-        <v>868.69</v>
+        <v>95.123999999999995</v>
       </c>
       <c r="K26">
-        <v>299.81200000000001</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>682.39499999999998</v>
+        <v>163.67099999999999</v>
       </c>
       <c r="O26">
-        <v>1612.42</v>
+        <v>281.52199999999999</v>
       </c>
       <c r="P26">
-        <v>1169.0999999999999</v>
+        <v>133.548</v>
       </c>
       <c r="Q26">
-        <v>6.4880000000000004</v>
+        <v>31.513000000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1710.15</v>
+        <v>850.82</v>
       </c>
       <c r="U26">
-        <v>788.14599999999996</v>
+        <v>232.66800000000001</v>
       </c>
       <c r="V26">
-        <v>119.899</v>
+        <v>17.562999999999999</v>
       </c>
       <c r="W26">
-        <v>-46.487000000000002</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-48.000999999999998</v>
+        <v>28.916</v>
       </c>
       <c r="Y26">
-        <v>0.32300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-1.109</v>
+        <v>-2.3130000000000002</v>
       </c>
       <c r="AA26">
-        <v>76.742999999999995</v>
+        <v>28.995000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>87.822999999999993</v>
+        <v>-15.365</v>
       </c>
       <c r="D27">
-        <v>514.20399999999995</v>
+        <v>182.99</v>
       </c>
       <c r="E27">
-        <v>413.61200000000002</v>
+        <v>153.06299999999999</v>
       </c>
       <c r="F27">
-        <v>299.714</v>
+        <v>113.932</v>
       </c>
       <c r="G27">
-        <v>1605.3610000000001</v>
+        <v>638.59699999999998</v>
       </c>
       <c r="H27">
-        <v>3422.5630000000001</v>
+        <v>1191.806</v>
       </c>
       <c r="I27">
-        <v>82.846000000000004</v>
+        <v>44.109000000000002</v>
       </c>
       <c r="J27">
-        <v>1168.3499999999999</v>
+        <v>95.888000000000005</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>336.27800000000002</v>
+        <v>201.04300000000001</v>
       </c>
       <c r="O27">
-        <v>1567.607</v>
+        <v>319.30200000000002</v>
       </c>
       <c r="P27">
-        <v>1168.9169999999999</v>
+        <v>114.571</v>
       </c>
       <c r="Q27">
-        <v>39.164000000000001</v>
+        <v>7.4379999999999997</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>1854.9559999999999</v>
+        <v>872.50400000000002</v>
       </c>
       <c r="U27">
-        <v>827.31</v>
+        <v>240.10599999999999</v>
       </c>
       <c r="V27">
-        <v>67.597999999999999</v>
+        <v>20.305</v>
       </c>
       <c r="W27">
-        <v>-46.680999999999997</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-52.923999999999999</v>
+        <v>-1.2589999999999999</v>
       </c>
       <c r="Y27">
-        <v>0.29299999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-2.597</v>
+        <v>2.9940000000000002</v>
       </c>
       <c r="AA27">
-        <v>87.822999999999993</v>
+        <v>-15.365</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>101.61199999999999</v>
+        <v>27.672999999999998</v>
       </c>
       <c r="D28">
-        <v>556.68600000000004</v>
+        <v>191.309</v>
       </c>
       <c r="E28">
-        <v>450.53</v>
+        <v>167.821</v>
       </c>
       <c r="F28">
-        <v>323.77600000000001</v>
+        <v>117.206</v>
       </c>
       <c r="G28">
-        <v>1644.0029999999999</v>
+        <v>668.79899999999998</v>
       </c>
       <c r="H28">
-        <v>3468.4870000000001</v>
+        <v>1252.0419999999999</v>
       </c>
       <c r="I28">
-        <v>92.763000000000005</v>
+        <v>53.039000000000001</v>
       </c>
       <c r="J28">
-        <v>1078.6110000000001</v>
+        <v>87.162000000000006</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>360.12599999999998</v>
+        <v>202.40299999999999</v>
       </c>
       <c r="O28">
-        <v>1508.221</v>
+        <v>320.82</v>
       </c>
       <c r="P28">
-        <v>1078.6110000000001</v>
+        <v>115.998</v>
       </c>
       <c r="Q28">
-        <v>-5.375</v>
+        <v>17.686</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>6080</v>
+        <v>2700</v>
       </c>
       <c r="T28">
-        <v>1960.2660000000001</v>
+        <v>931.22199999999998</v>
       </c>
       <c r="U28">
-        <v>821.93499999999995</v>
+        <v>257.79199999999997</v>
       </c>
       <c r="V28">
-        <v>140.31299999999999</v>
+        <v>27.106000000000002</v>
       </c>
       <c r="W28">
-        <v>-46.8</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-121.89400000000001</v>
+        <v>4.5389999999999997</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>101.61199999999999</v>
+        <v>27.672999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>86.125</v>
+        <v>24.125</v>
       </c>
       <c r="D29">
-        <v>523.65899999999999</v>
+        <v>185.74</v>
       </c>
       <c r="E29">
-        <v>431.35399999999998</v>
+        <v>166.416</v>
       </c>
       <c r="F29">
-        <v>305.60500000000002</v>
+        <v>111.777</v>
       </c>
       <c r="G29">
-        <v>1657.9459999999999</v>
+        <v>672.702</v>
       </c>
       <c r="H29">
-        <v>3489.6170000000002</v>
+        <v>1287.8430000000001</v>
       </c>
       <c r="I29">
-        <v>85.081999999999994</v>
+        <v>48.15</v>
       </c>
       <c r="J29">
-        <v>1018.871</v>
+        <v>90.048000000000002</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-110</v>
+        <v>-5.1079999999999997</v>
       </c>
       <c r="N29">
-        <v>351.58499999999998</v>
+        <v>181.14099999999999</v>
       </c>
       <c r="O29">
-        <v>1440.0889999999999</v>
+        <v>305.858</v>
       </c>
       <c r="P29">
-        <v>1018.871</v>
+        <v>115.91500000000001</v>
       </c>
       <c r="Q29">
-        <v>-10.833</v>
+        <v>-6.4779999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="T29">
-        <v>2049.5279999999998</v>
+        <v>981.98500000000001</v>
       </c>
       <c r="U29">
-        <v>811.10199999999998</v>
+        <v>251.31399999999999</v>
       </c>
       <c r="V29">
-        <v>93.983000000000004</v>
+        <v>28.128</v>
       </c>
       <c r="W29">
-        <v>-49.698</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-106.083</v>
+        <v>-14.935</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="Z29">
-        <v>-3.2250000000000001</v>
+        <v>-6.5</v>
       </c>
       <c r="AA29">
-        <v>86.125</v>
+        <v>24.125</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>9.5259999999999998</v>
+        <v>26.861000000000001</v>
       </c>
       <c r="D30">
-        <v>601.27300000000002</v>
+        <v>202.679</v>
       </c>
       <c r="E30">
-        <v>482.93400000000003</v>
+        <v>170.773</v>
       </c>
       <c r="F30">
-        <v>349.79199999999997</v>
+        <v>121.331</v>
       </c>
       <c r="G30">
-        <v>1754.3489999999999</v>
+        <v>689.798</v>
       </c>
       <c r="H30">
-        <v>3564</v>
+        <v>1319.3789999999999</v>
       </c>
       <c r="I30">
-        <v>78.350999999999999</v>
+        <v>43.866</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>106.051</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1356.4110000000001</v>
+        <v>162.65299999999999</v>
       </c>
       <c r="O30">
-        <v>1544.472</v>
+        <v>304.62799999999999</v>
       </c>
       <c r="P30">
-        <v>1019.1319999999999</v>
+        <v>132.62899999999999</v>
       </c>
       <c r="Q30">
-        <v>47.796999999999997</v>
+        <v>27.189</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="T30">
-        <v>2019.528</v>
+        <v>1014.751</v>
       </c>
       <c r="U30">
-        <v>858.899</v>
+        <v>278.50299999999999</v>
       </c>
       <c r="V30">
-        <v>132.55099999999999</v>
+        <v>18.922000000000001</v>
       </c>
       <c r="W30">
-        <v>-49.854999999999997</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-55.423999999999999</v>
+        <v>16.887</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>16.45</v>
       </c>
       <c r="AA30">
-        <v>9.5269999999999992</v>
+        <v>26.861000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>110.126</v>
+        <v>29.683</v>
       </c>
       <c r="D31">
-        <v>591.63400000000001</v>
+        <v>211.827</v>
       </c>
       <c r="E31">
-        <v>498.42500000000001</v>
+        <v>179.869</v>
       </c>
       <c r="F31">
-        <v>344.29500000000002</v>
+        <v>126.55800000000001</v>
       </c>
       <c r="G31">
-        <v>1604.4059999999999</v>
+        <v>719.07399999999996</v>
       </c>
       <c r="H31">
-        <v>3534.2080000000001</v>
+        <v>1365.7819999999999</v>
       </c>
       <c r="I31">
-        <v>88.156999999999996</v>
+        <v>35.295999999999999</v>
       </c>
       <c r="J31">
-        <v>810</v>
+        <v>115.474</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>461.46</v>
+        <v>142.107</v>
       </c>
       <c r="O31">
-        <v>1467.2439999999999</v>
+        <v>296.48500000000001</v>
       </c>
       <c r="P31">
-        <v>810</v>
+        <v>132.209</v>
       </c>
       <c r="Q31">
-        <v>-154.61799999999999</v>
+        <v>28.991</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="T31">
-        <v>2066.9639999999999</v>
+        <v>1069.297</v>
       </c>
       <c r="U31">
-        <v>704.28099999999995</v>
+        <v>307.49400000000003</v>
       </c>
       <c r="V31">
-        <v>149.07599999999999</v>
+        <v>33.933999999999997</v>
       </c>
       <c r="W31">
-        <v>-49.973999999999997</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-276.51900000000001</v>
+        <v>-27.643999999999998</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.498</v>
       </c>
       <c r="Z31">
-        <v>-2.72</v>
+        <v>5</v>
       </c>
       <c r="AA31">
-        <v>110.125</v>
+        <v>29.684000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>109.81100000000001</v>
+        <v>29.634</v>
       </c>
       <c r="D32">
-        <v>623.63</v>
+        <v>235.15100000000001</v>
       </c>
       <c r="E32">
-        <v>497.02300000000002</v>
+        <v>192.2</v>
       </c>
       <c r="F32">
-        <v>362.47199999999998</v>
+        <v>137.18700000000001</v>
       </c>
       <c r="G32">
-        <v>1065.7170000000001</v>
+        <v>739.24</v>
       </c>
       <c r="H32">
-        <v>3063.9229999999998</v>
+        <v>1406</v>
       </c>
       <c r="I32">
-        <v>92.722999999999999</v>
+        <v>56.308</v>
       </c>
       <c r="J32">
-        <v>269.988</v>
+        <v>93.313999999999993</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>511.24900000000002</v>
+        <v>192.59299999999999</v>
       </c>
       <c r="O32">
-        <v>1004.943</v>
+        <v>324.22500000000002</v>
       </c>
       <c r="P32">
-        <v>281.45400000000001</v>
+        <v>137.654</v>
       </c>
       <c r="Q32">
-        <v>-515.58000000000004</v>
+        <v>13.584</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>5940</v>
+        <v>2700</v>
       </c>
       <c r="T32">
-        <v>2058.98</v>
+        <v>1081.7750000000001</v>
       </c>
       <c r="U32">
-        <v>188.70099999999999</v>
+        <v>321.07799999999997</v>
       </c>
       <c r="V32">
-        <v>129.416</v>
+        <v>56.851999999999997</v>
       </c>
       <c r="W32">
-        <v>-49.97</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-588.66800000000001</v>
+        <v>-38.064999999999998</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="Z32">
-        <v>-8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>109.81100000000001</v>
+        <v>29.634</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>105.73699999999999</v>
+        <v>28.026</v>
       </c>
       <c r="D33">
-        <v>588.279</v>
+        <v>217.93100000000001</v>
       </c>
       <c r="E33">
-        <v>476.60399999999998</v>
+        <v>175.83099999999999</v>
       </c>
       <c r="F33">
-        <v>343.09300000000002</v>
+        <v>127.127</v>
       </c>
       <c r="G33">
-        <v>1088.2429999999999</v>
+        <v>686.80700000000002</v>
       </c>
       <c r="H33">
-        <v>3067.538</v>
+        <v>1292.6969999999999</v>
       </c>
       <c r="I33">
-        <v>98.709000000000003</v>
+        <v>48.48</v>
       </c>
       <c r="J33">
-        <v>517.63699999999994</v>
+        <v>108.075</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,81 +3462,81 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-86.132999999999996</v>
+        <v>-3.77</v>
       </c>
       <c r="N33">
-        <v>421.108</v>
+        <v>175.94800000000001</v>
       </c>
       <c r="O33">
-        <v>1167.2819999999999</v>
+        <v>318.44799999999998</v>
       </c>
       <c r="P33">
-        <v>529.61199999999997</v>
+        <v>145.12700000000001</v>
       </c>
       <c r="Q33">
-        <v>41.487000000000002</v>
+        <v>-19.004000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1900.2560000000001</v>
+        <v>974.24900000000002</v>
       </c>
       <c r="U33">
-        <v>230.18799999999999</v>
+        <v>302.07400000000001</v>
       </c>
       <c r="V33">
-        <v>48.119</v>
+        <v>67.906000000000006</v>
       </c>
       <c r="W33">
-        <v>-52.792999999999999</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>144.82400000000001</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="Z33">
-        <v>-2.4670000000000001</v>
+        <v>-0.89900000000000002</v>
       </c>
       <c r="AA33">
-        <v>105.73699999999999</v>
+        <v>28.026</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>124.64</v>
+        <v>33.853000000000002</v>
       </c>
       <c r="D34">
-        <v>651.1</v>
+        <v>222.98</v>
       </c>
       <c r="E34">
-        <v>490.815</v>
+        <v>185.733</v>
       </c>
       <c r="F34">
-        <v>383.73099999999999</v>
+        <v>131.02500000000001</v>
       </c>
       <c r="G34">
-        <v>1063.539</v>
+        <v>706.39300000000003</v>
       </c>
       <c r="H34">
-        <v>3859.8159999999998</v>
+        <v>1307.1279999999999</v>
       </c>
       <c r="I34">
-        <v>110.33499999999999</v>
+        <v>54.456000000000003</v>
       </c>
       <c r="J34">
-        <v>1185.5</v>
+        <v>84.968999999999994</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>436.44299999999998</v>
+        <v>223.602</v>
       </c>
       <c r="O34">
-        <v>1903.7719999999999</v>
+        <v>343.55500000000001</v>
       </c>
       <c r="P34">
-        <v>1197.4780000000001</v>
+        <v>152.90299999999999</v>
       </c>
       <c r="Q34">
-        <v>-80.72</v>
+        <v>18.411000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1956.0440000000001</v>
+        <v>963.57299999999998</v>
       </c>
       <c r="U34">
-        <v>149.46799999999999</v>
+        <v>320.48500000000001</v>
       </c>
       <c r="V34">
-        <v>129.46799999999999</v>
+        <v>56.493000000000002</v>
       </c>
       <c r="W34">
-        <v>-52.774000000000001</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>450.21100000000001</v>
+        <v>17.902999999999999</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="Z34">
-        <v>-25.5</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>124.639</v>
+        <v>33.853000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>105.414</v>
+        <v>39.198999999999998</v>
       </c>
       <c r="D35">
-        <v>662.22799999999995</v>
+        <v>227.86500000000001</v>
       </c>
       <c r="E35">
-        <v>521.846</v>
+        <v>195.98599999999999</v>
       </c>
       <c r="F35">
-        <v>391.91</v>
+        <v>138.94300000000001</v>
       </c>
       <c r="G35">
-        <v>1102.6959999999999</v>
+        <v>728.06200000000001</v>
       </c>
       <c r="H35">
-        <v>4098.5259999999998</v>
+        <v>1325.739</v>
       </c>
       <c r="I35">
-        <v>124.46599999999999</v>
+        <v>51.234999999999999</v>
       </c>
       <c r="J35">
-        <v>1323.3489999999999</v>
+        <v>93.015000000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>462.96899999999999</v>
+        <v>228.565</v>
       </c>
       <c r="O35">
-        <v>2077.1970000000001</v>
+        <v>353.42099999999999</v>
       </c>
       <c r="P35">
-        <v>1335.7360000000001</v>
+        <v>159.58000000000001</v>
       </c>
       <c r="Q35">
-        <v>-2.9550000000000001</v>
+        <v>6.5869999999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2021.329</v>
+        <v>972.31799999999998</v>
       </c>
       <c r="U35">
-        <v>146.51300000000001</v>
+        <v>327.072</v>
       </c>
       <c r="V35">
-        <v>139.64599999999999</v>
+        <v>44.247999999999998</v>
       </c>
       <c r="W35">
-        <v>-53.024999999999999</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>83.183000000000007</v>
+        <v>-8.8870000000000005</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-3.125</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>105.416</v>
+        <v>39.198</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>68.801000000000002</v>
+        <v>45.37</v>
       </c>
       <c r="D36">
-        <v>704.96400000000006</v>
+        <v>251.959</v>
       </c>
       <c r="E36">
-        <v>538.31799999999998</v>
+        <v>212.096</v>
       </c>
       <c r="F36">
-        <v>417.851</v>
+        <v>156.708</v>
       </c>
       <c r="G36">
-        <v>1145.366</v>
+        <v>853.28399999999999</v>
       </c>
       <c r="H36">
-        <v>4107.6819999999998</v>
+        <v>1507.9680000000001</v>
       </c>
       <c r="I36">
-        <v>115.72499999999999</v>
+        <v>48.292999999999999</v>
       </c>
       <c r="J36">
-        <v>1258.8610000000001</v>
+        <v>94.191000000000003</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>555.99099999999999</v>
+        <v>269.10000000000002</v>
       </c>
       <c r="O36">
-        <v>2035.489</v>
+        <v>392.77600000000001</v>
       </c>
       <c r="P36">
-        <v>1270.8530000000001</v>
+        <v>161.73599999999999</v>
       </c>
       <c r="Q36">
-        <v>0.61499999999999999</v>
+        <v>88.578000000000003</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>7240</v>
+        <v>2900</v>
       </c>
       <c r="T36">
-        <v>2072.1930000000002</v>
+        <v>1115.192</v>
       </c>
       <c r="U36">
-        <v>147.12799999999999</v>
+        <v>415.65</v>
       </c>
       <c r="V36">
-        <v>141.81800000000001</v>
+        <v>70.23</v>
       </c>
       <c r="W36">
-        <v>-53.12</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-97.575000000000003</v>
+        <v>-7.532</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-15.625</v>
+        <v>-1.3680000000000001</v>
       </c>
       <c r="AA36">
-        <v>68.801000000000002</v>
+        <v>45.37</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>120.148</v>
+        <v>42.101999999999997</v>
       </c>
       <c r="D37">
-        <v>681.05600000000004</v>
+        <v>246.99199999999999</v>
       </c>
       <c r="E37">
-        <v>502.40800000000002</v>
+        <v>208.82499999999999</v>
       </c>
       <c r="F37">
-        <v>405.05500000000001</v>
+        <v>150.178</v>
       </c>
       <c r="G37">
-        <v>1161.098</v>
+        <v>939.81</v>
       </c>
       <c r="H37">
-        <v>4154.558</v>
+        <v>1620.136</v>
       </c>
       <c r="I37">
-        <v>109.742</v>
+        <v>47.286999999999999</v>
       </c>
       <c r="J37">
-        <v>1208.21</v>
+        <v>95.093000000000004</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3794,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-614.00300000000004</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>550.45699999999999</v>
+        <v>292.29599999999999</v>
       </c>
       <c r="O37">
-        <v>2037.307</v>
+        <v>417.21</v>
       </c>
       <c r="P37">
-        <v>1305.588</v>
+        <v>163.38900000000001</v>
       </c>
       <c r="Q37">
-        <v>25.026</v>
+        <v>62.173999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2117.2510000000002</v>
+        <v>1202.9259999999999</v>
       </c>
       <c r="U37">
-        <v>172.154</v>
+        <v>477.82400000000001</v>
       </c>
       <c r="V37">
-        <v>162.363</v>
+        <v>64.141000000000005</v>
       </c>
       <c r="W37">
-        <v>-56.052</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-100.074</v>
+        <v>-18.009</v>
       </c>
       <c r="Y37">
-        <v>65.837999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-2.7410000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>120.148</v>
+        <v>42.101999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>160.554</v>
+        <v>45.982999999999997</v>
       </c>
       <c r="D38">
-        <v>736.15700000000004</v>
+        <v>275.13400000000001</v>
       </c>
       <c r="E38">
-        <v>535.83100000000002</v>
+        <v>208.947</v>
       </c>
       <c r="F38">
-        <v>439.18200000000002</v>
+        <v>164.20500000000001</v>
       </c>
       <c r="G38">
-        <v>1300.4849999999999</v>
+        <v>927.63300000000004</v>
       </c>
       <c r="H38">
-        <v>4353.9390000000003</v>
+        <v>1621.25</v>
       </c>
       <c r="I38">
-        <v>114.322</v>
+        <v>46.616999999999997</v>
       </c>
       <c r="J38">
-        <v>1287.509</v>
+        <v>94.599000000000004</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>500.04500000000002</v>
+        <v>240.619</v>
       </c>
       <c r="O38">
-        <v>2095.8330000000001</v>
+        <v>363.73099999999999</v>
       </c>
       <c r="P38">
-        <v>1398.989</v>
+        <v>145.124</v>
       </c>
       <c r="Q38">
-        <v>31.940999999999999</v>
+        <v>-26.393000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2258.1060000000002</v>
+        <v>1257.519</v>
       </c>
       <c r="U38">
-        <v>204.095</v>
+        <v>451.43099999999998</v>
       </c>
       <c r="V38">
-        <v>69.932000000000002</v>
+        <v>11.568</v>
       </c>
       <c r="W38">
-        <v>-56.15</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>0.76400000000000001</v>
+        <v>-22.411000000000001</v>
       </c>
       <c r="Y38">
-        <v>79.457999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-19.100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>160.554</v>
+        <v>45.982999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>163.137</v>
+        <v>48.834000000000003</v>
       </c>
       <c r="D39">
-        <v>769.45500000000004</v>
+        <v>278.65899999999999</v>
       </c>
       <c r="E39">
-        <v>563.404</v>
+        <v>223.67</v>
       </c>
       <c r="F39">
-        <v>461.798</v>
+        <v>166.583</v>
       </c>
       <c r="G39">
-        <v>1469.758</v>
+        <v>1030.3579999999999</v>
       </c>
       <c r="H39">
-        <v>4510.5429999999997</v>
+        <v>1713.4939999999999</v>
       </c>
       <c r="I39">
-        <v>116.148</v>
+        <v>51.856000000000002</v>
       </c>
       <c r="J39">
-        <v>1364.8489999999999</v>
+        <v>29.466000000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>551.51900000000001</v>
+        <v>324.98</v>
       </c>
       <c r="O39">
-        <v>2254.1120000000001</v>
+        <v>381.26299999999998</v>
       </c>
       <c r="P39">
-        <v>1506.8820000000001</v>
+        <v>143.697</v>
       </c>
       <c r="Q39">
-        <v>148.76599999999999</v>
+        <v>69.504999999999995</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2256.431</v>
+        <v>1332.231</v>
       </c>
       <c r="U39">
-        <v>352.86099999999999</v>
+        <v>520.93600000000004</v>
       </c>
       <c r="V39">
-        <v>239.69499999999999</v>
+        <v>53.542000000000002</v>
       </c>
       <c r="W39">
-        <v>-56.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>18.391999999999999</v>
+        <v>18.943000000000001</v>
       </c>
       <c r="Y39">
-        <v>107.251</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-9.7750000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="AA39">
-        <v>163.137</v>
+        <v>48.834000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>177.83500000000001</v>
+        <v>53.165999999999997</v>
       </c>
       <c r="D40">
-        <v>770.34400000000005</v>
+        <v>291.572</v>
       </c>
       <c r="E40">
-        <v>484.09500000000003</v>
+        <v>226.911</v>
       </c>
       <c r="F40">
-        <v>461.35300000000001</v>
+        <v>174.517</v>
       </c>
       <c r="G40">
-        <v>1523.4590000000001</v>
+        <v>985.34100000000001</v>
       </c>
       <c r="H40">
-        <v>4587.3760000000002</v>
+        <v>1626.3969999999999</v>
       </c>
       <c r="I40">
-        <v>135.786</v>
+        <v>57.534999999999997</v>
       </c>
       <c r="J40">
-        <v>1164.133</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>602.76099999999997</v>
+        <v>312.67200000000003</v>
       </c>
       <c r="O40">
-        <v>2090.3490000000002</v>
+        <v>338.86099999999999</v>
       </c>
       <c r="P40">
-        <v>1299.2629999999999</v>
+        <v>121.68899999999999</v>
       </c>
       <c r="Q40">
-        <v>110.295</v>
+        <v>-32.159999999999997</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>7770</v>
+        <v>3200</v>
       </c>
       <c r="T40">
-        <v>2497.027</v>
+        <v>1287.5360000000001</v>
       </c>
       <c r="U40">
-        <v>463.15600000000001</v>
+        <v>488.77600000000001</v>
       </c>
       <c r="V40">
-        <v>330.26499999999999</v>
+        <v>58.962000000000003</v>
       </c>
       <c r="W40">
-        <v>-56.482999999999997</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-236.36799999999999</v>
+        <v>-39.652000000000001</v>
       </c>
       <c r="Y40">
-        <v>101.88</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>177.83500000000001</v>
+        <v>53.165999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>178.37200000000001</v>
+        <v>56.707999999999998</v>
       </c>
       <c r="D41">
-        <v>751.94399999999996</v>
+        <v>282.012</v>
       </c>
       <c r="E41">
-        <v>474.47800000000001</v>
+        <v>225.83600000000001</v>
       </c>
       <c r="F41">
-        <v>450.64</v>
+        <v>173.95400000000001</v>
       </c>
       <c r="G41">
-        <v>1542.6089999999999</v>
+        <v>1068.511</v>
       </c>
       <c r="H41">
-        <v>4620.8440000000001</v>
+        <v>1792.23</v>
       </c>
       <c r="I41">
-        <v>117.589</v>
+        <v>43.070999999999998</v>
       </c>
       <c r="J41">
-        <v>1044.4349999999999</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4126,3451 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-175</v>
+        <v>-30</v>
       </c>
       <c r="N41">
-        <v>590.85299999999995</v>
+        <v>286.315</v>
       </c>
       <c r="O41">
-        <v>1941.9839999999999</v>
+        <v>315.38499999999999</v>
       </c>
       <c r="P41">
-        <v>1188.9349999999999</v>
+        <v>93.8</v>
       </c>
       <c r="Q41">
-        <v>-41.741999999999997</v>
+        <v>51.228000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2678.86</v>
+        <v>1476.845</v>
       </c>
       <c r="U41">
-        <v>421.41399999999999</v>
+        <v>540.00400000000002</v>
       </c>
       <c r="V41">
-        <v>143.999</v>
+        <v>59.143000000000001</v>
       </c>
       <c r="W41">
-        <v>-56.511000000000003</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-175.25800000000001</v>
+        <v>-36.484000000000002</v>
       </c>
       <c r="Y41">
-        <v>111.18300000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-8.1959999999999997</v>
+        <v>2.7839999999999998</v>
       </c>
       <c r="AA41">
-        <v>178.37200000000001</v>
+        <v>56.707999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>58.456000000000003</v>
+      </c>
+      <c r="D42">
+        <v>305.98599999999999</v>
+      </c>
+      <c r="E42">
+        <v>235.083</v>
+      </c>
+      <c r="F42">
+        <v>185.999</v>
+      </c>
+      <c r="G42">
+        <v>1145.2539999999999</v>
+      </c>
+      <c r="H42">
+        <v>1884.211</v>
+      </c>
+      <c r="I42">
+        <v>44.329000000000001</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>246.59200000000001</v>
+      </c>
+      <c r="O42">
+        <v>273.40899999999999</v>
+      </c>
+      <c r="P42">
+        <v>64.358000000000004</v>
+      </c>
+      <c r="Q42">
+        <v>76.197000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1610.8019999999999</v>
+      </c>
+      <c r="U42">
+        <v>616.20100000000002</v>
+      </c>
+      <c r="V42">
+        <v>68.311000000000007</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-1.9670000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>58.456000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>53.35</v>
+      </c>
+      <c r="D43">
+        <v>313.25799999999998</v>
+      </c>
+      <c r="E43">
+        <v>251.935</v>
+      </c>
+      <c r="F43">
+        <v>182.50299999999999</v>
+      </c>
+      <c r="G43">
+        <v>1202.6579999999999</v>
+      </c>
+      <c r="H43">
+        <v>1962.1590000000001</v>
+      </c>
+      <c r="I43">
+        <v>52.37</v>
+      </c>
+      <c r="J43">
+        <v>80</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>191.37100000000001</v>
+      </c>
+      <c r="O43">
+        <v>298.76900000000001</v>
+      </c>
+      <c r="P43">
+        <v>80.234999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>55.503</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1663.39</v>
+      </c>
+      <c r="U43">
+        <v>671.70399999999995</v>
+      </c>
+      <c r="V43">
+        <v>81.408000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-21.34</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.66</v>
+      </c>
+      <c r="AA43">
+        <v>53.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>58.472000000000001</v>
+      </c>
+      <c r="D44">
+        <v>341.89299999999997</v>
+      </c>
+      <c r="E44">
+        <v>274.35199999999998</v>
+      </c>
+      <c r="F44">
+        <v>201.12799999999999</v>
+      </c>
+      <c r="G44">
+        <v>1292.452</v>
+      </c>
+      <c r="H44">
+        <v>2068.922</v>
+      </c>
+      <c r="I44">
+        <v>55.194000000000003</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>208.84</v>
+      </c>
+      <c r="O44">
+        <v>338.185</v>
+      </c>
+      <c r="P44">
+        <v>100.163</v>
+      </c>
+      <c r="Q44">
+        <v>63.563000000000002</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>3450</v>
+      </c>
+      <c r="T44">
+        <v>1730.7370000000001</v>
+      </c>
+      <c r="U44">
+        <v>735.26700000000005</v>
+      </c>
+      <c r="V44">
+        <v>74.328000000000003</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-19.552</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-0.6</v>
+      </c>
+      <c r="AA44">
+        <v>58.472000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>50.518000000000001</v>
+      </c>
+      <c r="D45">
+        <v>314.774</v>
+      </c>
+      <c r="E45">
+        <v>251.10300000000001</v>
+      </c>
+      <c r="F45">
+        <v>185.054</v>
+      </c>
+      <c r="G45">
+        <v>1142.799</v>
+      </c>
+      <c r="H45">
+        <v>1935.2919999999999</v>
+      </c>
+      <c r="I45">
+        <v>46.688000000000002</v>
+      </c>
+      <c r="J45">
+        <v>130</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-52.456000000000003</v>
+      </c>
+      <c r="N45">
+        <v>225.714</v>
+      </c>
+      <c r="O45">
+        <v>386.274</v>
+      </c>
+      <c r="P45">
+        <v>134.095</v>
+      </c>
+      <c r="Q45">
+        <v>-125.20399999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1549.018</v>
+      </c>
+      <c r="U45">
+        <v>610.06299999999999</v>
+      </c>
+      <c r="V45">
+        <v>89.522999999999996</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-83.942999999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-1.165</v>
+      </c>
+      <c r="AA45">
+        <v>50.518000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>62.872</v>
+      </c>
+      <c r="D46">
+        <v>332.738</v>
+      </c>
+      <c r="E46">
+        <v>238.76400000000001</v>
+      </c>
+      <c r="F46">
+        <v>198.715</v>
+      </c>
+      <c r="G46">
+        <v>1246.7670000000001</v>
+      </c>
+      <c r="H46">
+        <v>2041.4780000000001</v>
+      </c>
+      <c r="I46">
+        <v>45.762999999999998</v>
+      </c>
+      <c r="J46">
+        <v>225</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>228.357</v>
+      </c>
+      <c r="O46">
+        <v>480.40300000000002</v>
+      </c>
+      <c r="P46">
+        <v>226.45</v>
+      </c>
+      <c r="Q46">
+        <v>113.17</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>1561.075</v>
+      </c>
+      <c r="U46">
+        <v>723.23299999999995</v>
+      </c>
+      <c r="V46">
+        <v>110.633</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-10.305999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-3.6309999999999998</v>
+      </c>
+      <c r="AA46">
+        <v>62.872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>64.613</v>
+      </c>
+      <c r="D47">
+        <v>349.07299999999998</v>
+      </c>
+      <c r="E47">
+        <v>267.93</v>
+      </c>
+      <c r="F47">
+        <v>210.49600000000001</v>
+      </c>
+      <c r="G47">
+        <v>1325.8510000000001</v>
+      </c>
+      <c r="H47">
+        <v>2128.8429999999998</v>
+      </c>
+      <c r="I47">
+        <v>54.725999999999999</v>
+      </c>
+      <c r="J47">
+        <v>235</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>257.47899999999998</v>
+      </c>
+      <c r="O47">
+        <v>519.89</v>
+      </c>
+      <c r="P47">
+        <v>235.982</v>
+      </c>
+      <c r="Q47">
+        <v>52.834000000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1608.953</v>
+      </c>
+      <c r="U47">
+        <v>776.06700000000001</v>
+      </c>
+      <c r="V47">
+        <v>86.025999999999996</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-35.966999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>64.613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>76.846999999999994</v>
+      </c>
+      <c r="D48">
+        <v>371.92899999999997</v>
+      </c>
+      <c r="E48">
+        <v>283.16000000000003</v>
+      </c>
+      <c r="F48">
+        <v>226.46899999999999</v>
+      </c>
+      <c r="G48">
+        <v>1361.1510000000001</v>
+      </c>
+      <c r="H48">
+        <v>2137.8690000000001</v>
+      </c>
+      <c r="I48">
+        <v>55.006</v>
+      </c>
+      <c r="J48">
+        <v>250.78299999999999</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>252.852</v>
+      </c>
+      <c r="O48">
+        <v>530.24199999999996</v>
+      </c>
+      <c r="P48">
+        <v>250.83500000000001</v>
+      </c>
+      <c r="Q48">
+        <v>33.473999999999997</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>3700</v>
+      </c>
+      <c r="T48">
+        <v>1607.627</v>
+      </c>
+      <c r="U48">
+        <v>809.54100000000005</v>
+      </c>
+      <c r="V48">
+        <v>96.977000000000004</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-46.889000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0.499</v>
+      </c>
+      <c r="AA48">
+        <v>76.846999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>71.265000000000001</v>
+      </c>
+      <c r="D49">
+        <v>339.73099999999999</v>
+      </c>
+      <c r="E49">
+        <v>266.53699999999998</v>
+      </c>
+      <c r="F49">
+        <v>208.648</v>
+      </c>
+      <c r="G49">
+        <v>1450.2170000000001</v>
+      </c>
+      <c r="H49">
+        <v>2244.6590000000001</v>
+      </c>
+      <c r="I49">
+        <v>52.914000000000001</v>
+      </c>
+      <c r="J49">
+        <v>265.78500000000003</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-0.158</v>
+      </c>
+      <c r="N49">
+        <v>253.03100000000001</v>
+      </c>
+      <c r="O49">
+        <v>545.73599999999999</v>
+      </c>
+      <c r="P49">
+        <v>265.83800000000002</v>
+      </c>
+      <c r="Q49">
+        <v>81.087999999999994</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1698.923</v>
+      </c>
+      <c r="U49">
+        <v>890.62900000000002</v>
+      </c>
+      <c r="V49">
+        <v>78.254000000000005</v>
+      </c>
+      <c r="W49">
+        <v>-22.843</v>
+      </c>
+      <c r="X49">
+        <v>7.69</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>71.265000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>77.941999999999993</v>
+      </c>
+      <c r="D50">
+        <v>376.53699999999998</v>
+      </c>
+      <c r="E50">
+        <v>281.43900000000002</v>
+      </c>
+      <c r="F50">
+        <v>232.71199999999999</v>
+      </c>
+      <c r="G50">
+        <v>1529.8510000000001</v>
+      </c>
+      <c r="H50">
+        <v>2330.375</v>
+      </c>
+      <c r="I50">
+        <v>52.119</v>
+      </c>
+      <c r="J50">
+        <v>300.798</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>251.06800000000001</v>
+      </c>
+      <c r="O50">
+        <v>578.86300000000006</v>
+      </c>
+      <c r="P50">
+        <v>300.85199999999998</v>
+      </c>
+      <c r="Q50">
+        <v>67.650999999999996</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>1751.5119999999999</v>
+      </c>
+      <c r="U50">
+        <v>958.28</v>
+      </c>
+      <c r="V50">
+        <v>93.647000000000006</v>
+      </c>
+      <c r="W50">
+        <v>-25.844999999999999</v>
+      </c>
+      <c r="X50">
+        <v>-14.71</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-0.89100000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>77.941999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>84.912999999999997</v>
+      </c>
+      <c r="D51">
+        <v>383.58100000000002</v>
+      </c>
+      <c r="E51">
+        <v>293.48899999999998</v>
+      </c>
+      <c r="F51">
+        <v>239.44900000000001</v>
+      </c>
+      <c r="G51">
+        <v>1579.875</v>
+      </c>
+      <c r="H51">
+        <v>2374.9560000000001</v>
+      </c>
+      <c r="I51">
+        <v>49.384999999999998</v>
+      </c>
+      <c r="J51">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>580.42100000000005</v>
+      </c>
+      <c r="O51">
+        <v>606.798</v>
+      </c>
+      <c r="P51">
+        <v>340.81799999999998</v>
+      </c>
+      <c r="Q51">
+        <v>54.417999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1768.1579999999999</v>
+      </c>
+      <c r="U51">
+        <v>1012.698</v>
+      </c>
+      <c r="V51">
+        <v>107</v>
+      </c>
+      <c r="W51">
+        <v>-24.251000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-30.434999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-0.66700000000000004</v>
+      </c>
+      <c r="AA51">
+        <v>84.912999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>73.013000000000005</v>
+      </c>
+      <c r="D52">
+        <v>414.60700000000003</v>
+      </c>
+      <c r="E52">
+        <v>318.34899999999999</v>
+      </c>
+      <c r="F52">
+        <v>259.84800000000001</v>
+      </c>
+      <c r="G52">
+        <v>1448.8489999999999</v>
+      </c>
+      <c r="H52">
+        <v>2210.721</v>
+      </c>
+      <c r="I52">
+        <v>60.688000000000002</v>
+      </c>
+      <c r="J52">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>574.04899999999998</v>
+      </c>
+      <c r="O52">
+        <v>600.20500000000004</v>
+      </c>
+      <c r="P52">
+        <v>300.786</v>
+      </c>
+      <c r="Q52">
+        <v>-136.65</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>3900</v>
+      </c>
+      <c r="T52">
+        <v>1610.5160000000001</v>
+      </c>
+      <c r="U52">
+        <v>876.048</v>
+      </c>
+      <c r="V52">
+        <v>123.922</v>
+      </c>
+      <c r="W52">
+        <v>-24.265000000000001</v>
+      </c>
+      <c r="X52">
+        <v>-116.47199999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-0.66700000000000004</v>
+      </c>
+      <c r="AA52">
+        <v>73.013000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="D53">
+        <v>357.66199999999998</v>
+      </c>
+      <c r="E53">
+        <v>282.42500000000001</v>
+      </c>
+      <c r="F53">
+        <v>227.982</v>
+      </c>
+      <c r="G53">
+        <v>1557.934</v>
+      </c>
+      <c r="H53">
+        <v>2334.6350000000002</v>
+      </c>
+      <c r="I53">
+        <v>57.125</v>
+      </c>
+      <c r="J53">
+        <v>0.79</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="N53">
+        <v>611.08199999999999</v>
+      </c>
+      <c r="O53">
+        <v>642.1</v>
+      </c>
+      <c r="P53">
+        <v>360.80799999999999</v>
+      </c>
+      <c r="Q53">
+        <v>100.526</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>1692.5350000000001</v>
+      </c>
+      <c r="U53">
+        <v>976.57399999999996</v>
+      </c>
+      <c r="V53">
+        <v>90.424999999999997</v>
+      </c>
+      <c r="W53">
+        <v>-35.478000000000002</v>
+      </c>
+      <c r="X53">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-0.67500000000000004</v>
+      </c>
+      <c r="AA53">
+        <v>80.930000000000007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>86.635999999999996</v>
+      </c>
+      <c r="D54">
+        <v>384.34100000000001</v>
+      </c>
+      <c r="E54">
+        <v>301.62700000000001</v>
+      </c>
+      <c r="F54">
+        <v>248.75899999999999</v>
+      </c>
+      <c r="G54">
+        <v>1564.1320000000001</v>
+      </c>
+      <c r="H54">
+        <v>2345.5880000000002</v>
+      </c>
+      <c r="I54">
+        <v>56.234999999999999</v>
+      </c>
+      <c r="J54">
+        <v>435.79399999999998</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>242.81100000000001</v>
+      </c>
+      <c r="O54">
+        <v>706.63599999999997</v>
+      </c>
+      <c r="P54">
+        <v>435.81200000000001</v>
+      </c>
+      <c r="Q54">
+        <v>-3.899</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1638.952</v>
+      </c>
+      <c r="U54">
+        <v>972.67499999999995</v>
+      </c>
+      <c r="V54">
+        <v>84.165000000000006</v>
+      </c>
+      <c r="W54">
+        <v>-35.646999999999998</v>
+      </c>
+      <c r="X54">
+        <v>-22.608000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-0.85</v>
+      </c>
+      <c r="AA54">
+        <v>86.635999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>89.968999999999994</v>
+      </c>
+      <c r="D55">
+        <v>397.75799999999998</v>
+      </c>
+      <c r="E55">
+        <v>337.572</v>
+      </c>
+      <c r="F55">
+        <v>251.78800000000001</v>
+      </c>
+      <c r="G55">
+        <v>1563.902</v>
+      </c>
+      <c r="H55">
+        <v>2364.5659999999998</v>
+      </c>
+      <c r="I55">
+        <v>55.482999999999997</v>
+      </c>
+      <c r="J55">
+        <v>395.78500000000003</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>246.892</v>
+      </c>
+      <c r="O55">
+        <v>673.66099999999994</v>
+      </c>
+      <c r="P55">
+        <v>395.803</v>
+      </c>
+      <c r="Q55">
+        <v>-34.112000000000002</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1690.905</v>
+      </c>
+      <c r="U55">
+        <v>938.56299999999999</v>
+      </c>
+      <c r="V55">
+        <v>101.095</v>
+      </c>
+      <c r="W55">
+        <v>-35.262</v>
+      </c>
+      <c r="X55">
+        <v>-144.43299999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-3.75</v>
+      </c>
+      <c r="AA55">
+        <v>89.968999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>87.738</v>
+      </c>
+      <c r="D56">
+        <v>415.21100000000001</v>
+      </c>
+      <c r="E56">
+        <v>359.59300000000002</v>
+      </c>
+      <c r="F56">
+        <v>261.25799999999998</v>
+      </c>
+      <c r="G56">
+        <v>1556.2090000000001</v>
+      </c>
+      <c r="H56">
+        <v>2360.962</v>
+      </c>
+      <c r="I56">
+        <v>85.405000000000001</v>
+      </c>
+      <c r="J56">
+        <v>300.77</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>269.55799999999999</v>
+      </c>
+      <c r="O56">
+        <v>602.71400000000006</v>
+      </c>
+      <c r="P56">
+        <v>300.78800000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-32.832999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>4100</v>
+      </c>
+      <c r="T56">
+        <v>1758.248</v>
+      </c>
+      <c r="U56">
+        <v>905.73</v>
+      </c>
+      <c r="V56">
+        <v>115.583</v>
+      </c>
+      <c r="W56">
+        <v>-35.131</v>
+      </c>
+      <c r="X56">
+        <v>-140.23500000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-5.5750000000000002</v>
+      </c>
+      <c r="AA56">
+        <v>87.738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>83.26</v>
+      </c>
+      <c r="D57">
+        <v>380.399</v>
+      </c>
+      <c r="E57">
+        <v>328.59100000000001</v>
+      </c>
+      <c r="F57">
+        <v>237.31299999999999</v>
+      </c>
+      <c r="G57">
+        <v>1534.75</v>
+      </c>
+      <c r="H57">
+        <v>2309.453</v>
+      </c>
+      <c r="I57">
+        <v>76.248000000000005</v>
+      </c>
+      <c r="J57">
+        <v>375.70100000000002</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-0.01</v>
+      </c>
+      <c r="N57">
+        <v>254.29599999999999</v>
+      </c>
+      <c r="O57">
+        <v>656.24199999999996</v>
+      </c>
+      <c r="P57">
+        <v>375.70100000000002</v>
+      </c>
+      <c r="Q57">
+        <v>-24.036000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>1653.211</v>
+      </c>
+      <c r="U57">
+        <v>881.69399999999996</v>
+      </c>
+      <c r="V57">
+        <v>86.536000000000001</v>
+      </c>
+      <c r="W57">
+        <v>-39.198999999999998</v>
+      </c>
+      <c r="X57">
+        <v>-3.9649999999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-0.5</v>
+      </c>
+      <c r="AA57">
+        <v>83.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>91.18</v>
+      </c>
+      <c r="D58">
+        <v>422.952</v>
+      </c>
+      <c r="E58">
+        <v>340.42700000000002</v>
+      </c>
+      <c r="F58">
+        <v>263.22199999999998</v>
+      </c>
+      <c r="G58">
+        <v>1558.491</v>
+      </c>
+      <c r="H58">
+        <v>2326.5619999999999</v>
+      </c>
+      <c r="I58">
+        <v>80.004000000000005</v>
+      </c>
+      <c r="J58">
+        <v>449.66300000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>259.61</v>
+      </c>
+      <c r="O58">
+        <v>738.11400000000003</v>
+      </c>
+      <c r="P58">
+        <v>449.66300000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-0.999</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1588.4480000000001</v>
+      </c>
+      <c r="U58">
+        <v>880.69500000000005</v>
+      </c>
+      <c r="V58">
+        <v>106.002</v>
+      </c>
+      <c r="W58">
+        <v>-39.277999999999999</v>
+      </c>
+      <c r="X58">
+        <v>10.776</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-10</v>
+      </c>
+      <c r="AA58">
+        <v>91.180999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>90.983999999999995</v>
+      </c>
+      <c r="D59">
+        <v>422.49700000000001</v>
+      </c>
+      <c r="E59">
+        <v>345.48500000000001</v>
+      </c>
+      <c r="F59">
+        <v>251.43100000000001</v>
+      </c>
+      <c r="G59">
+        <v>1552.77</v>
+      </c>
+      <c r="H59">
+        <v>2278.029</v>
+      </c>
+      <c r="I59">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="J59">
+        <v>460.58100000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>256.404</v>
+      </c>
+      <c r="O59">
+        <v>741.75400000000002</v>
+      </c>
+      <c r="P59">
+        <v>460.58100000000002</v>
+      </c>
+      <c r="Q59">
+        <v>-14.37</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1536.2750000000001</v>
+      </c>
+      <c r="U59">
+        <v>866.32500000000005</v>
+      </c>
+      <c r="V59">
+        <v>90.941000000000003</v>
+      </c>
+      <c r="W59">
+        <v>-39.384999999999998</v>
+      </c>
+      <c r="X59">
+        <v>-26.039000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>90.983000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>87.462000000000003</v>
+      </c>
+      <c r="D60">
+        <v>453.06400000000002</v>
+      </c>
+      <c r="E60">
+        <v>362.56799999999998</v>
+      </c>
+      <c r="F60">
+        <v>259.43</v>
+      </c>
+      <c r="G60">
+        <v>1407.8440000000001</v>
+      </c>
+      <c r="H60">
+        <v>2181.7739999999999</v>
+      </c>
+      <c r="I60">
+        <v>81.111999999999995</v>
+      </c>
+      <c r="J60">
+        <v>300.59399999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>266.46300000000002</v>
+      </c>
+      <c r="O60">
+        <v>594.46699999999998</v>
+      </c>
+      <c r="P60">
+        <v>300.59399999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-149.07599999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>4340</v>
+      </c>
+      <c r="T60">
+        <v>1587.307</v>
+      </c>
+      <c r="U60">
+        <v>717.24900000000002</v>
+      </c>
+      <c r="V60">
+        <v>99.700999999999993</v>
+      </c>
+      <c r="W60">
+        <v>-39.4</v>
+      </c>
+      <c r="X60">
+        <v>-236.56299999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="AA60">
+        <v>87.462000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>82.917000000000002</v>
+      </c>
+      <c r="D61">
+        <v>411.64699999999999</v>
+      </c>
+      <c r="E61">
+        <v>327.16800000000001</v>
+      </c>
+      <c r="F61">
+        <v>238.619</v>
+      </c>
+      <c r="G61">
+        <v>1532.8</v>
+      </c>
+      <c r="H61">
+        <v>2254.6790000000001</v>
+      </c>
+      <c r="I61">
+        <v>77.481999999999999</v>
+      </c>
+      <c r="J61">
+        <v>500.58699999999999</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="N61">
+        <v>257.30700000000002</v>
+      </c>
+      <c r="O61">
+        <v>793.86599999999999</v>
+      </c>
+      <c r="P61">
+        <v>500.58699999999999</v>
+      </c>
+      <c r="Q61">
+        <v>104.804</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1460.8130000000001</v>
+      </c>
+      <c r="U61">
+        <v>822.053</v>
+      </c>
+      <c r="V61">
+        <v>124.608</v>
+      </c>
+      <c r="W61">
+        <v>-42.079000000000001</v>
+      </c>
+      <c r="X61">
+        <v>104.408</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-4.5819999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>82.917000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>95.575999999999993</v>
+      </c>
+      <c r="D62">
+        <v>454.54</v>
+      </c>
+      <c r="E62">
+        <v>331.74700000000001</v>
+      </c>
+      <c r="F62">
+        <v>266.50900000000001</v>
+      </c>
+      <c r="G62">
+        <v>1350.8409999999999</v>
+      </c>
+      <c r="H62">
+        <v>2239.011</v>
+      </c>
+      <c r="I62">
+        <v>67.58</v>
+      </c>
+      <c r="J62">
+        <v>400.59100000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>265.57</v>
+      </c>
+      <c r="O62">
+        <v>714.74</v>
+      </c>
+      <c r="P62">
+        <v>401.57600000000002</v>
+      </c>
+      <c r="Q62">
+        <v>-163.249</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>1524.271</v>
+      </c>
+      <c r="U62">
+        <v>658.80399999999997</v>
+      </c>
+      <c r="V62">
+        <v>155.614</v>
+      </c>
+      <c r="W62">
+        <v>-41.975000000000001</v>
+      </c>
+      <c r="X62">
+        <v>-183.73400000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-3</v>
+      </c>
+      <c r="AA62">
+        <v>95.575999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>90.79</v>
+      </c>
+      <c r="D63">
+        <v>453.87900000000002</v>
+      </c>
+      <c r="E63">
+        <v>358.17099999999999</v>
+      </c>
+      <c r="F63">
+        <v>259.88</v>
+      </c>
+      <c r="G63">
+        <v>1400.0940000000001</v>
+      </c>
+      <c r="H63">
+        <v>2444.61</v>
+      </c>
+      <c r="I63">
+        <v>77.641999999999996</v>
+      </c>
+      <c r="J63">
+        <v>435.60899999999998</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>286.50799999999998</v>
+      </c>
+      <c r="O63">
+        <v>771.19899999999996</v>
+      </c>
+      <c r="P63">
+        <v>435.60899999999998</v>
+      </c>
+      <c r="Q63">
+        <v>59.691000000000003</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1673.4110000000001</v>
+      </c>
+      <c r="U63">
+        <v>718.495</v>
+      </c>
+      <c r="V63">
+        <v>124.751</v>
+      </c>
+      <c r="W63">
+        <v>-41.972000000000001</v>
+      </c>
+      <c r="X63">
+        <v>-16.140999999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>90.790999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>83.126000000000005</v>
+      </c>
+      <c r="D64">
+        <v>518.64700000000005</v>
+      </c>
+      <c r="E64">
+        <v>382.08600000000001</v>
+      </c>
+      <c r="F64">
+        <v>301.48899999999998</v>
+      </c>
+      <c r="G64">
+        <v>1419.7190000000001</v>
+      </c>
+      <c r="H64">
+        <v>3256.7049999999999</v>
+      </c>
+      <c r="I64">
+        <v>92.570999999999998</v>
+      </c>
+      <c r="J64">
+        <v>873.33199999999999</v>
+      </c>
+      <c r="K64">
+        <v>299.43799999999999</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>637.98900000000003</v>
+      </c>
+      <c r="O64">
+        <v>1561.874</v>
+      </c>
+      <c r="P64">
+        <v>1172.77</v>
+      </c>
+      <c r="Q64">
+        <v>12.939</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>5250</v>
+      </c>
+      <c r="T64">
+        <v>1694.8309999999999</v>
+      </c>
+      <c r="U64">
+        <v>731.43399999999997</v>
+      </c>
+      <c r="V64">
+        <v>142.96</v>
+      </c>
+      <c r="W64">
+        <v>-42.103999999999999</v>
+      </c>
+      <c r="X64">
+        <v>708.05100000000004</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-0.28199999999999997</v>
+      </c>
+      <c r="AA64">
+        <v>83.126000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>76.106999999999999</v>
+      </c>
+      <c r="D65">
+        <v>465.45</v>
+      </c>
+      <c r="E65">
+        <v>347.137</v>
+      </c>
+      <c r="F65">
+        <v>269.18400000000003</v>
+      </c>
+      <c r="G65">
+        <v>1474.8520000000001</v>
+      </c>
+      <c r="H65">
+        <v>3322.2640000000001</v>
+      </c>
+      <c r="I65">
+        <v>80.489000000000004</v>
+      </c>
+      <c r="J65">
+        <v>873.51099999999997</v>
+      </c>
+      <c r="K65">
+        <v>299.625</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-25</v>
+      </c>
+      <c r="N65">
+        <v>620.55499999999995</v>
+      </c>
+      <c r="O65">
+        <v>1549.6959999999999</v>
+      </c>
+      <c r="P65">
+        <v>1173.136</v>
+      </c>
+      <c r="Q65">
+        <v>50.223999999999997</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1772.568</v>
+      </c>
+      <c r="U65">
+        <v>781.65800000000002</v>
+      </c>
+      <c r="V65">
+        <v>86.242999999999995</v>
+      </c>
+      <c r="W65">
+        <v>-46.378</v>
+      </c>
+      <c r="X65">
+        <v>-40.048000000000002</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-2.758</v>
+      </c>
+      <c r="AA65">
+        <v>76.106999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>76.742000000000004</v>
+      </c>
+      <c r="D66">
+        <v>530.39700000000005</v>
+      </c>
+      <c r="E66">
+        <v>383.99200000000002</v>
+      </c>
+      <c r="F66">
+        <v>309.07100000000003</v>
+      </c>
+      <c r="G66">
+        <v>1520.2739999999999</v>
+      </c>
+      <c r="H66">
+        <v>3322.57</v>
+      </c>
+      <c r="I66">
+        <v>94.1</v>
+      </c>
+      <c r="J66">
+        <v>868.69</v>
+      </c>
+      <c r="K66">
+        <v>299.81200000000001</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>682.39499999999998</v>
+      </c>
+      <c r="O66">
+        <v>1612.42</v>
+      </c>
+      <c r="P66">
+        <v>1169.0999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>6.4880000000000004</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>1710.15</v>
+      </c>
+      <c r="U66">
+        <v>788.14599999999996</v>
+      </c>
+      <c r="V66">
+        <v>119.899</v>
+      </c>
+      <c r="W66">
+        <v>-46.487000000000002</v>
+      </c>
+      <c r="X66">
+        <v>-48.000999999999998</v>
+      </c>
+      <c r="Y66">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="Z66">
+        <v>-1.109</v>
+      </c>
+      <c r="AA66">
+        <v>76.742999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>87.822999999999993</v>
+      </c>
+      <c r="D67">
+        <v>514.20399999999995</v>
+      </c>
+      <c r="E67">
+        <v>413.61200000000002</v>
+      </c>
+      <c r="F67">
+        <v>299.714</v>
+      </c>
+      <c r="G67">
+        <v>1605.3610000000001</v>
+      </c>
+      <c r="H67">
+        <v>3422.5630000000001</v>
+      </c>
+      <c r="I67">
+        <v>82.846000000000004</v>
+      </c>
+      <c r="J67">
+        <v>1168.3499999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>336.27800000000002</v>
+      </c>
+      <c r="O67">
+        <v>1567.607</v>
+      </c>
+      <c r="P67">
+        <v>1168.9169999999999</v>
+      </c>
+      <c r="Q67">
+        <v>39.164000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1854.9559999999999</v>
+      </c>
+      <c r="U67">
+        <v>827.31</v>
+      </c>
+      <c r="V67">
+        <v>67.597999999999999</v>
+      </c>
+      <c r="W67">
+        <v>-46.680999999999997</v>
+      </c>
+      <c r="X67">
+        <v>-52.923999999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="Z67">
+        <v>-2.597</v>
+      </c>
+      <c r="AA67">
+        <v>87.822999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>101.61199999999999</v>
+      </c>
+      <c r="D68">
+        <v>556.68600000000004</v>
+      </c>
+      <c r="E68">
+        <v>450.53</v>
+      </c>
+      <c r="F68">
+        <v>323.77600000000001</v>
+      </c>
+      <c r="G68">
+        <v>1644.0029999999999</v>
+      </c>
+      <c r="H68">
+        <v>3468.4870000000001</v>
+      </c>
+      <c r="I68">
+        <v>92.763000000000005</v>
+      </c>
+      <c r="J68">
+        <v>1078.6110000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>360.12599999999998</v>
+      </c>
+      <c r="O68">
+        <v>1508.221</v>
+      </c>
+      <c r="P68">
+        <v>1078.6110000000001</v>
+      </c>
+      <c r="Q68">
+        <v>-5.375</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>6080</v>
+      </c>
+      <c r="T68">
+        <v>1960.2660000000001</v>
+      </c>
+      <c r="U68">
+        <v>821.93499999999995</v>
+      </c>
+      <c r="V68">
+        <v>140.31299999999999</v>
+      </c>
+      <c r="W68">
+        <v>-46.8</v>
+      </c>
+      <c r="X68">
+        <v>-121.89400000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>101.61199999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>86.125</v>
+      </c>
+      <c r="D69">
+        <v>523.65899999999999</v>
+      </c>
+      <c r="E69">
+        <v>431.35399999999998</v>
+      </c>
+      <c r="F69">
+        <v>305.60500000000002</v>
+      </c>
+      <c r="G69">
+        <v>1657.9459999999999</v>
+      </c>
+      <c r="H69">
+        <v>3489.6170000000002</v>
+      </c>
+      <c r="I69">
+        <v>85.081999999999994</v>
+      </c>
+      <c r="J69">
+        <v>1018.871</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-110</v>
+      </c>
+      <c r="N69">
+        <v>351.58499999999998</v>
+      </c>
+      <c r="O69">
+        <v>1440.0889999999999</v>
+      </c>
+      <c r="P69">
+        <v>1018.871</v>
+      </c>
+      <c r="Q69">
+        <v>-10.833</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2049.5279999999998</v>
+      </c>
+      <c r="U69">
+        <v>811.10199999999998</v>
+      </c>
+      <c r="V69">
+        <v>93.983000000000004</v>
+      </c>
+      <c r="W69">
+        <v>-49.698</v>
+      </c>
+      <c r="X69">
+        <v>-106.083</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-3.2250000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>86.125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>9.5259999999999998</v>
+      </c>
+      <c r="D70">
+        <v>601.27300000000002</v>
+      </c>
+      <c r="E70">
+        <v>482.93400000000003</v>
+      </c>
+      <c r="F70">
+        <v>349.79199999999997</v>
+      </c>
+      <c r="G70">
+        <v>1754.3489999999999</v>
+      </c>
+      <c r="H70">
+        <v>3564</v>
+      </c>
+      <c r="I70">
+        <v>78.350999999999999</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1356.4110000000001</v>
+      </c>
+      <c r="O70">
+        <v>1544.472</v>
+      </c>
+      <c r="P70">
+        <v>1019.1319999999999</v>
+      </c>
+      <c r="Q70">
+        <v>47.796999999999997</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>2019.528</v>
+      </c>
+      <c r="U70">
+        <v>858.899</v>
+      </c>
+      <c r="V70">
+        <v>132.55099999999999</v>
+      </c>
+      <c r="W70">
+        <v>-49.854999999999997</v>
+      </c>
+      <c r="X70">
+        <v>-55.423999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-0.5</v>
+      </c>
+      <c r="AA70">
+        <v>9.5269999999999992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>110.126</v>
+      </c>
+      <c r="D71">
+        <v>591.63400000000001</v>
+      </c>
+      <c r="E71">
+        <v>498.42500000000001</v>
+      </c>
+      <c r="F71">
+        <v>344.29500000000002</v>
+      </c>
+      <c r="G71">
+        <v>1604.4059999999999</v>
+      </c>
+      <c r="H71">
+        <v>3534.2080000000001</v>
+      </c>
+      <c r="I71">
+        <v>88.156999999999996</v>
+      </c>
+      <c r="J71">
+        <v>810</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>461.46</v>
+      </c>
+      <c r="O71">
+        <v>1467.2439999999999</v>
+      </c>
+      <c r="P71">
+        <v>810</v>
+      </c>
+      <c r="Q71">
+        <v>-154.61799999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2066.9639999999999</v>
+      </c>
+      <c r="U71">
+        <v>704.28099999999995</v>
+      </c>
+      <c r="V71">
+        <v>149.07599999999999</v>
+      </c>
+      <c r="W71">
+        <v>-49.973999999999997</v>
+      </c>
+      <c r="X71">
+        <v>-276.51900000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-2.72</v>
+      </c>
+      <c r="AA71">
+        <v>110.125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>109.81100000000001</v>
+      </c>
+      <c r="D72">
+        <v>623.63</v>
+      </c>
+      <c r="E72">
+        <v>497.02300000000002</v>
+      </c>
+      <c r="F72">
+        <v>362.47199999999998</v>
+      </c>
+      <c r="G72">
+        <v>1065.7170000000001</v>
+      </c>
+      <c r="H72">
+        <v>3063.9229999999998</v>
+      </c>
+      <c r="I72">
+        <v>92.722999999999999</v>
+      </c>
+      <c r="J72">
+        <v>269.988</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>511.24900000000002</v>
+      </c>
+      <c r="O72">
+        <v>1004.943</v>
+      </c>
+      <c r="P72">
+        <v>281.45400000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-515.58000000000004</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>5940</v>
+      </c>
+      <c r="T72">
+        <v>2058.98</v>
+      </c>
+      <c r="U72">
+        <v>188.70099999999999</v>
+      </c>
+      <c r="V72">
+        <v>129.416</v>
+      </c>
+      <c r="W72">
+        <v>-49.97</v>
+      </c>
+      <c r="X72">
+        <v>-588.66800000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-8.0500000000000007</v>
+      </c>
+      <c r="AA72">
+        <v>109.81100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>105.73699999999999</v>
+      </c>
+      <c r="D73">
+        <v>588.279</v>
+      </c>
+      <c r="E73">
+        <v>476.60399999999998</v>
+      </c>
+      <c r="F73">
+        <v>343.09300000000002</v>
+      </c>
+      <c r="G73">
+        <v>1088.2429999999999</v>
+      </c>
+      <c r="H73">
+        <v>3067.538</v>
+      </c>
+      <c r="I73">
+        <v>98.709000000000003</v>
+      </c>
+      <c r="J73">
+        <v>517.63699999999994</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-86.132999999999996</v>
+      </c>
+      <c r="N73">
+        <v>421.108</v>
+      </c>
+      <c r="O73">
+        <v>1167.2819999999999</v>
+      </c>
+      <c r="P73">
+        <v>529.61199999999997</v>
+      </c>
+      <c r="Q73">
+        <v>41.487000000000002</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1900.2560000000001</v>
+      </c>
+      <c r="U73">
+        <v>230.18799999999999</v>
+      </c>
+      <c r="V73">
+        <v>48.119</v>
+      </c>
+      <c r="W73">
+        <v>-52.792999999999999</v>
+      </c>
+      <c r="X73">
+        <v>144.82400000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-2.4670000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>105.73699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>124.64</v>
+      </c>
+      <c r="D74">
+        <v>651.1</v>
+      </c>
+      <c r="E74">
+        <v>490.815</v>
+      </c>
+      <c r="F74">
+        <v>383.73099999999999</v>
+      </c>
+      <c r="G74">
+        <v>1063.539</v>
+      </c>
+      <c r="H74">
+        <v>3859.8159999999998</v>
+      </c>
+      <c r="I74">
+        <v>110.33499999999999</v>
+      </c>
+      <c r="J74">
+        <v>1185.5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>436.44299999999998</v>
+      </c>
+      <c r="O74">
+        <v>1903.7719999999999</v>
+      </c>
+      <c r="P74">
+        <v>1197.4780000000001</v>
+      </c>
+      <c r="Q74">
+        <v>-80.72</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1956.0440000000001</v>
+      </c>
+      <c r="U74">
+        <v>149.46799999999999</v>
+      </c>
+      <c r="V74">
+        <v>129.46799999999999</v>
+      </c>
+      <c r="W74">
+        <v>-52.774000000000001</v>
+      </c>
+      <c r="X74">
+        <v>450.21100000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-25.5</v>
+      </c>
+      <c r="AA74">
+        <v>124.639</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>105.414</v>
+      </c>
+      <c r="D75">
+        <v>662.22799999999995</v>
+      </c>
+      <c r="E75">
+        <v>521.846</v>
+      </c>
+      <c r="F75">
+        <v>391.91</v>
+      </c>
+      <c r="G75">
+        <v>1102.6959999999999</v>
+      </c>
+      <c r="H75">
+        <v>4098.5259999999998</v>
+      </c>
+      <c r="I75">
+        <v>124.46599999999999</v>
+      </c>
+      <c r="J75">
+        <v>1323.3489999999999</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>462.96899999999999</v>
+      </c>
+      <c r="O75">
+        <v>2077.1970000000001</v>
+      </c>
+      <c r="P75">
+        <v>1335.7360000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-2.9550000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2021.329</v>
+      </c>
+      <c r="U75">
+        <v>146.51300000000001</v>
+      </c>
+      <c r="V75">
+        <v>139.64599999999999</v>
+      </c>
+      <c r="W75">
+        <v>-53.024999999999999</v>
+      </c>
+      <c r="X75">
+        <v>83.183000000000007</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-3.125</v>
+      </c>
+      <c r="AA75">
+        <v>105.416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>68.801000000000002</v>
+      </c>
+      <c r="D76">
+        <v>704.96400000000006</v>
+      </c>
+      <c r="E76">
+        <v>538.31799999999998</v>
+      </c>
+      <c r="F76">
+        <v>417.851</v>
+      </c>
+      <c r="G76">
+        <v>1145.366</v>
+      </c>
+      <c r="H76">
+        <v>4107.6819999999998</v>
+      </c>
+      <c r="I76">
+        <v>115.72499999999999</v>
+      </c>
+      <c r="J76">
+        <v>1258.8610000000001</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>555.99099999999999</v>
+      </c>
+      <c r="O76">
+        <v>2035.489</v>
+      </c>
+      <c r="P76">
+        <v>1270.8530000000001</v>
+      </c>
+      <c r="Q76">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>7240</v>
+      </c>
+      <c r="T76">
+        <v>2072.1930000000002</v>
+      </c>
+      <c r="U76">
+        <v>147.12799999999999</v>
+      </c>
+      <c r="V76">
+        <v>141.81800000000001</v>
+      </c>
+      <c r="W76">
+        <v>-53.12</v>
+      </c>
+      <c r="X76">
+        <v>-97.575000000000003</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-15.625</v>
+      </c>
+      <c r="AA76">
+        <v>68.801000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>120.148</v>
+      </c>
+      <c r="D77">
+        <v>681.05600000000004</v>
+      </c>
+      <c r="E77">
+        <v>502.40800000000002</v>
+      </c>
+      <c r="F77">
+        <v>405.05500000000001</v>
+      </c>
+      <c r="G77">
+        <v>1161.098</v>
+      </c>
+      <c r="H77">
+        <v>4154.558</v>
+      </c>
+      <c r="I77">
+        <v>109.742</v>
+      </c>
+      <c r="J77">
+        <v>1208.21</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-614.00300000000004</v>
+      </c>
+      <c r="N77">
+        <v>550.45699999999999</v>
+      </c>
+      <c r="O77">
+        <v>2037.307</v>
+      </c>
+      <c r="P77">
+        <v>1305.588</v>
+      </c>
+      <c r="Q77">
+        <v>25.026</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>2117.2510000000002</v>
+      </c>
+      <c r="U77">
+        <v>172.154</v>
+      </c>
+      <c r="V77">
+        <v>162.363</v>
+      </c>
+      <c r="W77">
+        <v>-56.052</v>
+      </c>
+      <c r="X77">
+        <v>-100.074</v>
+      </c>
+      <c r="Y77">
+        <v>65.837999999999994</v>
+      </c>
+      <c r="Z77">
+        <v>-2.7410000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>120.148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>160.554</v>
+      </c>
+      <c r="D78">
+        <v>736.15700000000004</v>
+      </c>
+      <c r="E78">
+        <v>535.83100000000002</v>
+      </c>
+      <c r="F78">
+        <v>439.18200000000002</v>
+      </c>
+      <c r="G78">
+        <v>1300.4849999999999</v>
+      </c>
+      <c r="H78">
+        <v>4353.9390000000003</v>
+      </c>
+      <c r="I78">
+        <v>114.322</v>
+      </c>
+      <c r="J78">
+        <v>1287.509</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>500.04500000000002</v>
+      </c>
+      <c r="O78">
+        <v>2095.8330000000001</v>
+      </c>
+      <c r="P78">
+        <v>1398.989</v>
+      </c>
+      <c r="Q78">
+        <v>31.940999999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>2258.1060000000002</v>
+      </c>
+      <c r="U78">
+        <v>204.095</v>
+      </c>
+      <c r="V78">
+        <v>69.932000000000002</v>
+      </c>
+      <c r="W78">
+        <v>-56.15</v>
+      </c>
+      <c r="X78">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="Y78">
+        <v>79.457999999999998</v>
+      </c>
+      <c r="Z78">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>160.554</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>163.137</v>
+      </c>
+      <c r="D79">
+        <v>769.45500000000004</v>
+      </c>
+      <c r="E79">
+        <v>563.404</v>
+      </c>
+      <c r="F79">
+        <v>461.798</v>
+      </c>
+      <c r="G79">
+        <v>1469.758</v>
+      </c>
+      <c r="H79">
+        <v>4510.5429999999997</v>
+      </c>
+      <c r="I79">
+        <v>116.148</v>
+      </c>
+      <c r="J79">
+        <v>1364.8489999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>551.51900000000001</v>
+      </c>
+      <c r="O79">
+        <v>2254.1120000000001</v>
+      </c>
+      <c r="P79">
+        <v>1506.8820000000001</v>
+      </c>
+      <c r="Q79">
+        <v>148.76599999999999</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2256.431</v>
+      </c>
+      <c r="U79">
+        <v>352.86099999999999</v>
+      </c>
+      <c r="V79">
+        <v>239.69499999999999</v>
+      </c>
+      <c r="W79">
+        <v>-56.408000000000001</v>
+      </c>
+      <c r="X79">
+        <v>18.391999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>107.251</v>
+      </c>
+      <c r="Z79">
+        <v>-9.7750000000000004</v>
+      </c>
+      <c r="AA79">
+        <v>163.137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>177.83500000000001</v>
+      </c>
+      <c r="D80">
+        <v>770.34400000000005</v>
+      </c>
+      <c r="E80">
+        <v>484.09500000000003</v>
+      </c>
+      <c r="F80">
+        <v>461.35300000000001</v>
+      </c>
+      <c r="G80">
+        <v>1523.4590000000001</v>
+      </c>
+      <c r="H80">
+        <v>4587.3760000000002</v>
+      </c>
+      <c r="I80">
+        <v>135.786</v>
+      </c>
+      <c r="J80">
+        <v>1164.133</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>602.76099999999997</v>
+      </c>
+      <c r="O80">
+        <v>2090.3490000000002</v>
+      </c>
+      <c r="P80">
+        <v>1299.2629999999999</v>
+      </c>
+      <c r="Q80">
+        <v>110.295</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>7770</v>
+      </c>
+      <c r="T80">
+        <v>2497.027</v>
+      </c>
+      <c r="U80">
+        <v>463.15600000000001</v>
+      </c>
+      <c r="V80">
+        <v>330.26499999999999</v>
+      </c>
+      <c r="W80">
+        <v>-56.482999999999997</v>
+      </c>
+      <c r="X80">
+        <v>-236.36799999999999</v>
+      </c>
+      <c r="Y80">
+        <v>101.88</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>177.83500000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>178.37200000000001</v>
+      </c>
+      <c r="D81">
+        <v>751.94399999999996</v>
+      </c>
+      <c r="E81">
+        <v>474.47800000000001</v>
+      </c>
+      <c r="F81">
+        <v>450.64</v>
+      </c>
+      <c r="G81">
+        <v>1542.6089999999999</v>
+      </c>
+      <c r="H81">
+        <v>4620.8440000000001</v>
+      </c>
+      <c r="I81">
+        <v>117.589</v>
+      </c>
+      <c r="J81">
+        <v>1044.4349999999999</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>-175</v>
+      </c>
+      <c r="N81">
+        <v>590.85299999999995</v>
+      </c>
+      <c r="O81">
+        <v>1941.9839999999999</v>
+      </c>
+      <c r="P81">
+        <v>1188.9349999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-41.741999999999997</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2678.86</v>
+      </c>
+      <c r="U81">
+        <v>421.41399999999999</v>
+      </c>
+      <c r="V81">
+        <v>143.999</v>
+      </c>
+      <c r="W81">
+        <v>-56.511000000000003</v>
+      </c>
+      <c r="X81">
+        <v>-175.25800000000001</v>
+      </c>
+      <c r="Y81">
+        <v>111.18300000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-8.1959999999999997</v>
+      </c>
+      <c r="AA81">
+        <v>178.37200000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>179.51400000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>800.01099999999997</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>518.81700000000001</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>478.87900000000002</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1451.4849999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>4572.8559999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>122.166</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>813.73199999999997</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>577.33500000000004</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1707.8720000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>965.80600000000004</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-165.54900000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>2864.9839999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>255.86500000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>169.916</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-56.654000000000003</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-316.8</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>117.64100000000001</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-6.25</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>179.51400000000001</v>
       </c>
     </row>
